--- a/PRORUDCCION/monitoreo_costos.xlsx
+++ b/PRORUDCCION/monitoreo_costos.xlsx
@@ -521,10 +521,10 @@
         <v>29483.95</v>
       </c>
       <c r="D3" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E3" t="n">
-        <v>29454.76857142857</v>
+        <v>29408.41408284024</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-29.18142857142811</v>
+        <v>-75.5359171597629</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0009897394538868813</v>
+        <v>-0.002561933430214164</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009897394538868813</v>
+        <v>0.002561933430214164</v>
       </c>
     </row>
     <row r="4">
@@ -554,10 +554,10 @@
         <v>24672.45</v>
       </c>
       <c r="D4" t="n">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E4" t="n">
-        <v>24250.73446601942</v>
+        <v>24242.19210526316</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-421.7155339805831</v>
+        <v>-430.257894736842</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01709256818761749</v>
+        <v>-0.01743879893309509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01709256818761749</v>
+        <v>0.01743879893309509</v>
       </c>
     </row>
     <row r="5">
@@ -719,10 +719,10 @@
         <v>80267.67</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>80220.53750000001</v>
+        <v>80195.15846153845</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-47.13249999999243</v>
+        <v>-72.51153846154921</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0005871915803709318</v>
+        <v>-0.0009033716621094048</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005871915803709318</v>
+        <v>0.0009033716621094048</v>
       </c>
     </row>
     <row r="10">
@@ -752,10 +752,10 @@
         <v>21859.54</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>22001.13</v>
+        <v>22044.195625</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>141.5900000000001</v>
+        <v>184.6556249999994</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006477263473979788</v>
+        <v>0.008447370118492861</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006477263473979788</v>
+        <v>0.008447370118492861</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +818,7 @@
         <v>25852.39</v>
       </c>
       <c r="D12" t="n">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="E12" t="n">
         <v>25852.39</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-3.637978807091713e-12</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-1.407211792446158e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.407211792446158e-16</v>
       </c>
     </row>
     <row r="13">
@@ -851,7 +851,7 @@
         <v>19444.2</v>
       </c>
       <c r="D13" t="n">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E13" t="n">
         <v>19233.77</v>
@@ -884,7 +884,7 @@
         <v>83932.61</v>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" t="n">
         <v>83932.61</v>
@@ -950,10 +950,10 @@
         <v>23685.27</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" t="n">
-        <v>23685.271</v>
+        <v>23713.14151515152</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.001000000000203727</v>
+        <v>27.87151515151709</v>
       </c>
       <c r="H16" t="n">
-        <v>4.222033357456879e-08</v>
+        <v>0.001176744666685965</v>
       </c>
       <c r="I16" t="n">
-        <v>4.222033357456879e-08</v>
+        <v>0.001176744666685965</v>
       </c>
     </row>
     <row r="17">
@@ -983,10 +983,10 @@
         <v>20835.64</v>
       </c>
       <c r="D17" t="n">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="E17" t="n">
-        <v>20656.93379652606</v>
+        <v>20502.47494623656</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-178.7062034739429</v>
+        <v>-333.1650537634378</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.008576948127052631</v>
+        <v>-0.01599015215099885</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008576948127052631</v>
+        <v>0.01599015215099885</v>
       </c>
     </row>
     <row r="18">
@@ -1115,10 +1115,10 @@
         <v>52614.6</v>
       </c>
       <c r="D21" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" t="n">
-        <v>52651.24930232559</v>
+        <v>52653.7076056338</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36.64930232558982</v>
+        <v>39.10760563380609</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000696561454911561</v>
+        <v>0.0007432842905544485</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000696561454911561</v>
+        <v>0.0007432842905544485</v>
       </c>
     </row>
     <row r="22">
@@ -1214,10 +1214,10 @@
         <v>46686.45</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>46686.44666666666</v>
+        <v>46864.32068965517</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-0.00333333334128838</v>
+        <v>177.8706896551666</v>
       </c>
       <c r="H24" t="n">
-        <v>-7.139830381809669e-08</v>
+        <v>0.003809899653007813</v>
       </c>
       <c r="I24" t="n">
-        <v>7.139830381809669e-08</v>
+        <v>0.003809899653007813</v>
       </c>
     </row>
     <row r="25">
@@ -1247,10 +1247,10 @@
         <v>30410.6</v>
       </c>
       <c r="D25" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E25" t="n">
-        <v>30419.8333201581</v>
+        <v>30426.11</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>9.233320158102288</v>
+        <v>15.5099999999984</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0003036217686629756</v>
+        <v>0.0005100195326629003</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003036217686629756</v>
+        <v>0.0005100195326629003</v>
       </c>
     </row>
     <row r="26">
@@ -1280,10 +1280,10 @@
         <v>44883.42</v>
       </c>
       <c r="D26" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" t="n">
-        <v>44626.47394366198</v>
+        <v>44622.45212765958</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-256.9460563380198</v>
+        <v>-260.9678723404213</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.005724743264617979</v>
+        <v>-0.005814349092391384</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005724743264617979</v>
+        <v>0.005814349092391384</v>
       </c>
     </row>
     <row r="27">
@@ -1478,10 +1478,10 @@
         <v>48072.83</v>
       </c>
       <c r="D32" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E32" t="n">
-        <v>47075.76058823529</v>
+        <v>47091.37484848484</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-997.0694117647072</v>
+        <v>-981.4551515151616</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.02074080955426812</v>
+        <v>-0.0204160052885416</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02074080955426812</v>
+        <v>0.0204160052885416</v>
       </c>
     </row>
     <row r="33">
@@ -1511,10 +1511,10 @@
         <v>34859.29</v>
       </c>
       <c r="D33" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E33" t="n">
-        <v>34811.54101694915</v>
+        <v>34760.44140350877</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-47.74898305084935</v>
+        <v>-98.84859649123246</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.001369763499223574</v>
+        <v>-0.002835645720014161</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001369763499223574</v>
+        <v>0.002835645720014161</v>
       </c>
     </row>
     <row r="34">
@@ -1610,10 +1610,10 @@
         <v>57961.35</v>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n">
-        <v>57961.35</v>
+        <v>57961.34999999999</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-1.255311964642546e-16</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.255311964642546e-16</v>
       </c>
     </row>
     <row r="37">
@@ -1676,10 +1676,10 @@
         <v>55622.79</v>
       </c>
       <c r="D38" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E38" t="n">
-        <v>54085.52408450704</v>
+        <v>54023.34884892087</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-1537.265915492957</v>
+        <v>-1599.441151079132</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.02763733921820457</v>
+        <v>-0.02875514067307901</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02763733921820457</v>
+        <v>0.02875514067307901</v>
       </c>
     </row>
     <row r="39">
@@ -1709,10 +1709,10 @@
         <v>41560.81</v>
       </c>
       <c r="D39" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E39" t="n">
-        <v>41487.21102564102</v>
+        <v>41546.63756756757</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-73.59897435897437</v>
+        <v>-14.17243243243138</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.001770874397274124</v>
+        <v>-0.0003410047213331833</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001770874397274124</v>
+        <v>0.0003410047213331833</v>
       </c>
     </row>
     <row r="40">
@@ -1742,10 +1742,10 @@
         <v>40246.39</v>
       </c>
       <c r="D40" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E40" t="n">
-        <v>40246.38974358975</v>
+        <v>40280.95783783784</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.0002564102542237379</v>
+        <v>34.56783783783612</v>
       </c>
       <c r="H40" t="n">
-        <v>-6.371012511277107e-09</v>
+        <v>0.0008589053039995916</v>
       </c>
       <c r="I40" t="n">
-        <v>6.371012511277107e-09</v>
+        <v>0.0008589053039995916</v>
       </c>
     </row>
     <row r="41">
@@ -1808,7 +1808,7 @@
         <v>61480.82</v>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
         <v>62891.27</v>
@@ -1940,10 +1940,10 @@
         <v>48156.2</v>
       </c>
       <c r="D46" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>47834.08483870967</v>
+        <v>47799.15</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-322.1151612903341</v>
+        <v>-357.0500000000029</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.006688965518257962</v>
+        <v>-0.00741441392800933</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006688965518257962</v>
+        <v>0.00741441392800933</v>
       </c>
     </row>
     <row r="47">
@@ -2006,10 +2006,10 @@
         <v>33342.68</v>
       </c>
       <c r="D48" t="n">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E48" t="n">
-        <v>33347.85813559323</v>
+        <v>33371.67449339207</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.178135593225306</v>
+        <v>28.99449339207058</v>
       </c>
       <c r="H48" t="n">
-        <v>0.000155300521530522</v>
+        <v>0.0008695909684545628</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000155300521530522</v>
+        <v>0.0008695909684545628</v>
       </c>
     </row>
     <row r="49">
@@ -2039,7 +2039,7 @@
         <v>47439.37</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>47439.34</v>
@@ -2072,10 +2072,10 @@
         <v>29217.45</v>
       </c>
       <c r="D50" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" t="n">
-        <v>29708.79901408451</v>
+        <v>29650.56432835821</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>491.3490140845061</v>
+        <v>433.1143283582096</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01681697116225085</v>
+        <v>0.01482382372035238</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01681697116225085</v>
+        <v>0.01482382372035238</v>
       </c>
     </row>
     <row r="51">
@@ -2204,10 +2204,10 @@
         <v>26549.75</v>
       </c>
       <c r="D54" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E54" t="n">
-        <v>26506.19728395062</v>
+        <v>26493.055</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>-43.55271604938389</v>
+        <v>-56.69499999999971</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.001640419064186438</v>
+        <v>-0.00213542500400191</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001640419064186438</v>
+        <v>0.00213542500400191</v>
       </c>
     </row>
     <row r="55">
@@ -2237,10 +2237,10 @@
         <v>30728.79</v>
       </c>
       <c r="D55" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E55" t="n">
-        <v>30728.78734513275</v>
+        <v>30693.88266055046</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-0.002654867254022975</v>
+        <v>-34.90733944954263</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.63967391499299e-08</v>
+        <v>-0.001135981581101717</v>
       </c>
       <c r="I55" t="n">
-        <v>8.63967391499299e-08</v>
+        <v>0.001135981581101717</v>
       </c>
     </row>
     <row r="56">
@@ -2270,7 +2270,7 @@
         <v>39249.45</v>
       </c>
       <c r="D56" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E56" t="n">
         <v>39971.29</v>
@@ -2666,10 +2666,10 @@
         <v>35980.65</v>
       </c>
       <c r="D68" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E68" t="n">
-        <v>35905.69137931034</v>
+        <v>35898.16242774566</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>-74.95862068965653</v>
+        <v>-82.48757225433656</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.002083303683776044</v>
+        <v>-0.002292553699122627</v>
       </c>
       <c r="I68" t="n">
-        <v>0.002083303683776044</v>
+        <v>0.002292553699122627</v>
       </c>
     </row>
     <row r="69">
@@ -2699,7 +2699,7 @@
         <v>42286.93</v>
       </c>
       <c r="D69" t="n">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E69" t="n">
         <v>40436.19</v>
@@ -2864,7 +2864,7 @@
         <v>47578.62</v>
       </c>
       <c r="D74" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E74" t="n">
         <v>45046.41</v>
@@ -3029,7 +3029,7 @@
         <v>66552.73</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>66552.64</v>
@@ -3194,10 +3194,10 @@
         <v>46553.84</v>
       </c>
       <c r="D84" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E84" t="n">
-        <v>46957.57101010101</v>
+        <v>47119.37736842106</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>403.731010101008</v>
+        <v>565.5373684210572</v>
       </c>
       <c r="H84" t="n">
-        <v>0.008672346042797071</v>
+        <v>0.01214802835643756</v>
       </c>
       <c r="I84" t="n">
-        <v>0.008672346042797071</v>
+        <v>0.01214802835643756</v>
       </c>
     </row>
     <row r="85">
@@ -3260,10 +3260,10 @@
         <v>48009.84</v>
       </c>
       <c r="D86" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E86" t="n">
-        <v>48659.18705882353</v>
+        <v>48373.818125</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3271,13 +3271,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>649.3470588235286</v>
+        <v>363.9781249999942</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01352529104082681</v>
+        <v>0.007581323432862808</v>
       </c>
       <c r="I86" t="n">
-        <v>0.01352529104082681</v>
+        <v>0.007581323432862808</v>
       </c>
     </row>
     <row r="87">
@@ -3290,27 +3290,27 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40423.06</v>
+        <v>41019.8</v>
       </c>
       <c r="D87" t="n">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="E87" t="n">
-        <v>40309.5321238938</v>
+        <v>40966.19039215687</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-07-11 13:14:51</t>
+          <t>2025-09-05 08:37:55</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>-113.5278761061927</v>
+        <v>-53.60960784313647</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.00280849287773347</v>
+        <v>-0.001306920263949031</v>
       </c>
       <c r="I87" t="n">
-        <v>0.00280849287773347</v>
+        <v>0.001306920263949031</v>
       </c>
     </row>
     <row r="88">
@@ -3326,10 +3326,10 @@
         <v>58057.7</v>
       </c>
       <c r="D88" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E88" t="n">
-        <v>57907.72</v>
+        <v>57907.72000000001</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>-149.9800000000032</v>
+        <v>-149.9799999999959</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.002583292138682779</v>
+        <v>-0.002583292138682654</v>
       </c>
       <c r="I88" t="n">
-        <v>0.002583292138682779</v>
+        <v>0.002583292138682654</v>
       </c>
     </row>
     <row r="89">
@@ -3392,10 +3392,10 @@
         <v>94191.08</v>
       </c>
       <c r="D90" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E90" t="n">
-        <v>96489.96024390245</v>
+        <v>96665.25</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2298.880243902444</v>
+        <v>2474.169999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0.02440655998320057</v>
+        <v>0.02626756164171807</v>
       </c>
       <c r="I90" t="n">
-        <v>0.02440655998320057</v>
+        <v>0.02626756164171807</v>
       </c>
     </row>
     <row r="91">
@@ -3425,7 +3425,7 @@
         <v>94071.66</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
         <v>93794.04000000001</v>
@@ -3458,10 +3458,10 @@
         <v>57714.77</v>
       </c>
       <c r="D92" t="n">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E92" t="n">
-        <v>57703.43166007906</v>
+        <v>57670.31173553719</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3469,13 +3469,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-11.33833992094878</v>
+        <v>-44.45826446280989</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.0001964547362997164</v>
+        <v>-0.0007703099997246786</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0001964547362997164</v>
+        <v>0.0007703099997246786</v>
       </c>
     </row>
     <row r="93">
@@ -3524,10 +3524,10 @@
         <v>22705.99</v>
       </c>
       <c r="D94" t="n">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="E94" t="n">
-        <v>22686.40204047217</v>
+        <v>22663.30523809524</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>-19.58795952782748</v>
+        <v>-42.68476190476213</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.0008626780654720397</v>
+        <v>-0.001879889927933648</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0008626780654720397</v>
+        <v>0.001879889927933648</v>
       </c>
     </row>
     <row r="95">
@@ -3557,7 +3557,7 @@
         <v>84391.82000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95" t="n">
         <v>85714.73</v>
@@ -3689,7 +3689,7 @@
         <v>82850.5</v>
       </c>
       <c r="D99" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E99" t="n">
         <v>80979.93000000001</v>
@@ -3821,10 +3821,10 @@
         <v>69096.74000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E103" t="n">
-        <v>68910.93491525424</v>
+        <v>68690.72148148148</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>-185.8050847457635</v>
+        <v>-406.0185185185255</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.002689057179047281</v>
+        <v>-0.005876087909770063</v>
       </c>
       <c r="I103" t="n">
-        <v>0.002689057179047281</v>
+        <v>0.005876087909770063</v>
       </c>
     </row>
     <row r="104">
@@ -3887,10 +3887,10 @@
         <v>51706.08</v>
       </c>
       <c r="D105" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E105" t="n">
-        <v>51202.8182674772</v>
+        <v>51170.15823899371</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>-503.2617325227984</v>
+        <v>-535.9217610062915</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.009733124857324291</v>
+        <v>-0.01036477259553019</v>
       </c>
       <c r="I105" t="n">
-        <v>0.009733124857324291</v>
+        <v>0.01036477259553019</v>
       </c>
     </row>
     <row r="106">
@@ -3920,10 +3920,10 @@
         <v>72084.56</v>
       </c>
       <c r="D106" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E106" t="n">
-        <v>69275.23503597123</v>
+        <v>69118.16970588236</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>-2809.324964028769</v>
+        <v>-2966.390294117635</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.03897263108811053</v>
+        <v>-0.04115153500441197</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03897263108811053</v>
+        <v>0.04115153500441197</v>
       </c>
     </row>
     <row r="107">
@@ -4052,7 +4052,7 @@
         <v>91955.98</v>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
         <v>97866.64</v>
@@ -4085,7 +4085,7 @@
         <v>30327.87</v>
       </c>
       <c r="D111" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E111" t="n">
         <v>30327.87</v>
@@ -4118,10 +4118,10 @@
         <v>21847.84</v>
       </c>
       <c r="D112" t="n">
-        <v>1306</v>
+        <v>1260</v>
       </c>
       <c r="E112" t="n">
-        <v>21838.60600306279</v>
+        <v>21833.76222222222</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4129,13 +4129,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>-9.233996937211487</v>
+        <v>-14.07777777778028</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.0004226503369308584</v>
+        <v>-0.0006443555874530518</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0004226503369308584</v>
+        <v>0.0006443555874530518</v>
       </c>
     </row>
     <row r="113">
@@ -4151,10 +4151,10 @@
         <v>39145.95</v>
       </c>
       <c r="D113" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E113" t="n">
-        <v>39093.81835526316</v>
+        <v>39093.55204620463</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4162,13 +4162,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>-52.13164473684446</v>
+        <v>-52.39795379537827</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001331725114267107</v>
+        <v>-0.001338528092826417</v>
       </c>
       <c r="I113" t="n">
-        <v>0.001331725114267107</v>
+        <v>0.001338528092826417</v>
       </c>
     </row>
     <row r="114">
@@ -4250,10 +4250,10 @@
         <v>93153.84</v>
       </c>
       <c r="D116" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E116" t="n">
-        <v>92541.03999999999</v>
+        <v>92632.8872972973</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>-612.8000000000029</v>
+        <v>-520.9527027026925</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.006578365422187673</v>
+        <v>-0.00559239106732146</v>
       </c>
       <c r="I116" t="n">
-        <v>0.006578365422187673</v>
+        <v>0.00559239106732146</v>
       </c>
     </row>
     <row r="117">
@@ -4382,10 +4382,10 @@
         <v>13507.71</v>
       </c>
       <c r="D120" t="n">
-        <v>3146</v>
+        <v>2872</v>
       </c>
       <c r="E120" t="n">
-        <v>13497.40224411952</v>
+        <v>13520.94287604457</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4393,13 +4393,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>-10.30775588048527</v>
+        <v>13.23287604456709</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.0007631016567934368</v>
+        <v>0.0009796535493112519</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0007631016567934368</v>
+        <v>0.0009796535493112519</v>
       </c>
     </row>
     <row r="121">
@@ -4481,10 +4481,10 @@
         <v>18353.4</v>
       </c>
       <c r="D123" t="n">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E123" t="n">
-        <v>18532.18627329193</v>
+        <v>18570.05774193548</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>178.7862732919239</v>
+        <v>216.6577419354835</v>
       </c>
       <c r="H123" t="n">
-        <v>0.009741316229795235</v>
+        <v>0.01180477415277188</v>
       </c>
       <c r="I123" t="n">
-        <v>0.009741316229795235</v>
+        <v>0.01180477415277188</v>
       </c>
     </row>
     <row r="124">
@@ -4514,10 +4514,10 @@
         <v>36695.86</v>
       </c>
       <c r="D124" t="n">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E124" t="n">
-        <v>36833.33803921569</v>
+        <v>36869.15365482234</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>137.4780392156899</v>
+        <v>173.2936548223443</v>
       </c>
       <c r="H124" t="n">
-        <v>0.003746418239433275</v>
+        <v>0.004722430672624766</v>
       </c>
       <c r="I124" t="n">
-        <v>0.003746418239433275</v>
+        <v>0.004722430672624766</v>
       </c>
     </row>
     <row r="125">
@@ -4547,10 +4547,10 @@
         <v>12211.32</v>
       </c>
       <c r="D125" t="n">
-        <v>928</v>
+        <v>854</v>
       </c>
       <c r="E125" t="n">
-        <v>12256.21612068966</v>
+        <v>12341.15545667447</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4558,13 +4558,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>44.89612068965653</v>
+        <v>129.8354566744729</v>
       </c>
       <c r="H125" t="n">
-        <v>0.003676598491371656</v>
+        <v>0.01063238508813731</v>
       </c>
       <c r="I125" t="n">
-        <v>0.003676598491371656</v>
+        <v>0.01063238508813731</v>
       </c>
     </row>
     <row r="126">
@@ -4580,10 +4580,10 @@
         <v>40136.46</v>
       </c>
       <c r="D126" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E126" t="n">
-        <v>39956.84206896552</v>
+        <v>39948.65368421052</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4591,13 +4591,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>-179.6179310344814</v>
+        <v>-187.8063157894794</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.004475181195214561</v>
+        <v>-0.004679194821603086</v>
       </c>
       <c r="I126" t="n">
-        <v>0.004475181195214561</v>
+        <v>0.004679194821603086</v>
       </c>
     </row>
     <row r="127">
@@ -4613,10 +4613,10 @@
         <v>25333.62</v>
       </c>
       <c r="D127" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E127" t="n">
-        <v>25393.0535483871</v>
+        <v>25579.28</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4624,13 +4624,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>59.43354838710366</v>
+        <v>245.6600000000035</v>
       </c>
       <c r="H127" t="n">
-        <v>0.002346034573310236</v>
+        <v>0.009696995533998044</v>
       </c>
       <c r="I127" t="n">
-        <v>0.002346034573310236</v>
+        <v>0.009696995533998044</v>
       </c>
     </row>
     <row r="128">
@@ -4712,10 +4712,10 @@
         <v>16854.65</v>
       </c>
       <c r="D130" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E130" t="n">
-        <v>16854.65</v>
+        <v>16921.47816901409</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4723,13 +4723,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>66.8281690140866</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.003964969252644617</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.003964969252644617</v>
       </c>
     </row>
     <row r="131">
@@ -4778,7 +4778,7 @@
         <v>56892.32</v>
       </c>
       <c r="D132" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E132" t="n">
         <v>54832.33</v>
@@ -4844,10 +4844,10 @@
         <v>17005.85</v>
       </c>
       <c r="D134" t="n">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="E134" t="n">
-        <v>17001.04633587787</v>
+        <v>16992.64843137255</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4855,13 +4855,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>-4.803664122133341</v>
+        <v>-13.20156862744989</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0002824712744222336</v>
+        <v>-0.0007762957233804772</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0002824712744222336</v>
+        <v>0.0007762957233804772</v>
       </c>
     </row>
     <row r="135">
@@ -4910,10 +4910,10 @@
         <v>11371.65</v>
       </c>
       <c r="D136" t="n">
-        <v>2560</v>
+        <v>2444</v>
       </c>
       <c r="E136" t="n">
-        <v>11412.7490234375</v>
+        <v>11428.04161211129</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4921,13 +4921,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>41.09902343750036</v>
+        <v>56.39161211129249</v>
       </c>
       <c r="H136" t="n">
-        <v>0.003614165353093031</v>
+        <v>0.00495896480381409</v>
       </c>
       <c r="I136" t="n">
-        <v>0.003614165353093031</v>
+        <v>0.00495896480381409</v>
       </c>
     </row>
     <row r="137">
@@ -5009,10 +5009,10 @@
         <v>7630.5</v>
       </c>
       <c r="D139" t="n">
-        <v>1503</v>
+        <v>1348</v>
       </c>
       <c r="E139" t="n">
-        <v>7625.92</v>
+        <v>7578.872670623145</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5020,13 +5020,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>-4.579999999999927</v>
+        <v>-51.62732937685541</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.0006002227901185935</v>
+        <v>-0.006765916961779098</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0006002227901185935</v>
+        <v>0.006765916961779098</v>
       </c>
     </row>
     <row r="140">
@@ -5075,10 +5075,10 @@
         <v>39411.7</v>
       </c>
       <c r="D141" t="n">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E141" t="n">
-        <v>39496.1431234257</v>
+        <v>39531.56523560209</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5086,13 +5086,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>84.44312342569174</v>
+        <v>119.8652356020903</v>
       </c>
       <c r="H141" t="n">
-        <v>0.002142590231471663</v>
+        <v>0.003041361717512572</v>
       </c>
       <c r="I141" t="n">
-        <v>0.002142590231471663</v>
+        <v>0.003041361717512572</v>
       </c>
     </row>
     <row r="142">
@@ -5141,10 +5141,10 @@
         <v>49182.33</v>
       </c>
       <c r="D143" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E143" t="n">
-        <v>50007.43950617284</v>
+        <v>50249.45866666667</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5152,13 +5152,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>825.1095061728411</v>
+        <v>1067.128666666671</v>
       </c>
       <c r="H143" t="n">
-        <v>0.01677654365242234</v>
+        <v>0.02169739958775176</v>
       </c>
       <c r="I143" t="n">
-        <v>0.01677654365242234</v>
+        <v>0.02169739958775176</v>
       </c>
     </row>
     <row r="144">
@@ -5174,10 +5174,10 @@
         <v>33037.07</v>
       </c>
       <c r="D144" t="n">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="E144" t="n">
-        <v>32580.22361111111</v>
+        <v>32595.43649425287</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5185,13 +5185,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-456.8463888888873</v>
+        <v>-441.633505747126</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.0138282961802874</v>
+        <v>-0.01336781699306646</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0138282961802874</v>
+        <v>0.01336781699306646</v>
       </c>
     </row>
     <row r="145">
@@ -5240,7 +5240,7 @@
         <v>70825.69</v>
       </c>
       <c r="D146" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" t="n">
         <v>73593.27</v>
@@ -5273,10 +5273,10 @@
         <v>33710.44</v>
       </c>
       <c r="D147" t="n">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E147" t="n">
-        <v>33849.40833333333</v>
+        <v>33954.26407942238</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5284,13 +5284,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>138.9683333333305</v>
+        <v>243.8240794223821</v>
       </c>
       <c r="H147" t="n">
-        <v>0.004122412324886015</v>
+        <v>0.007232895192776542</v>
       </c>
       <c r="I147" t="n">
-        <v>0.004122412324886015</v>
+        <v>0.007232895192776542</v>
       </c>
     </row>
     <row r="148">
@@ -5339,10 +5339,10 @@
         <v>37347.94</v>
       </c>
       <c r="D149" t="n">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="E149" t="n">
-        <v>37293.41559322034</v>
+        <v>37258.5797311828</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5350,13 +5350,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-54.52440677966661</v>
+        <v>-89.36026881720318</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.001459903994160497</v>
+        <v>-0.002392642507651109</v>
       </c>
       <c r="I149" t="n">
-        <v>0.001459903994160497</v>
+        <v>0.002392642507651109</v>
       </c>
     </row>
     <row r="150">
@@ -5372,10 +5372,10 @@
         <v>37002.06</v>
       </c>
       <c r="D150" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E150" t="n">
-        <v>37017.09436314363</v>
+        <v>37056.15604456824</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5383,13 +5383,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>15.03436314363353</v>
+        <v>54.09604456824309</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0004063115173488592</v>
+        <v>0.001461973862218566</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0004063115173488592</v>
+        <v>0.001461973862218566</v>
       </c>
     </row>
     <row r="151">
@@ -5405,7 +5405,7 @@
         <v>57606.65</v>
       </c>
       <c r="D151" t="n">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E151" t="n">
         <v>57769.03</v>
@@ -5537,10 +5537,10 @@
         <v>6922.56</v>
       </c>
       <c r="D155" t="n">
-        <v>1450</v>
+        <v>1376</v>
       </c>
       <c r="E155" t="n">
-        <v>6901.588620689655</v>
+        <v>6906.942790697674</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5548,13 +5548,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>-20.97137931034558</v>
+        <v>-15.61720930232605</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.003029425430815418</v>
+        <v>-0.002255987568518878</v>
       </c>
       <c r="I155" t="n">
-        <v>0.003029425430815418</v>
+        <v>0.002255987568518878</v>
       </c>
     </row>
     <row r="156">
@@ -5570,7 +5570,7 @@
         <v>38700.3</v>
       </c>
       <c r="D156" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E156" t="n">
         <v>39161.41</v>
@@ -5603,7 +5603,7 @@
         <v>26526.12</v>
       </c>
       <c r="D157" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E157" t="n">
         <v>26526.12</v>
@@ -5669,10 +5669,10 @@
         <v>23917.11</v>
       </c>
       <c r="D159" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E159" t="n">
-        <v>23961.19893617021</v>
+        <v>24007.20652173913</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>44.08893617021386</v>
+        <v>90.09652173913128</v>
       </c>
       <c r="H159" t="n">
-        <v>0.001843405669423014</v>
+        <v>0.003767032126336806</v>
       </c>
       <c r="I159" t="n">
-        <v>0.001843405669423014</v>
+        <v>0.003767032126336806</v>
       </c>
     </row>
     <row r="160">
@@ -5735,10 +5735,10 @@
         <v>53051.73</v>
       </c>
       <c r="D161" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E161" t="n">
-        <v>53688.228125</v>
+        <v>53594.02432432432</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5746,13 +5746,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>636.4981249999983</v>
+        <v>542.2943243243208</v>
       </c>
       <c r="H161" t="n">
-        <v>0.01199768838829569</v>
+        <v>0.01022199133420005</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01199768838829569</v>
+        <v>0.01022199133420005</v>
       </c>
     </row>
     <row r="162">
@@ -5768,10 +5768,10 @@
         <v>74407.38</v>
       </c>
       <c r="D162" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E162" t="n">
-        <v>72645.44684210526</v>
+        <v>72432.90324324324</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -5779,13 +5779,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>-1761.933157894746</v>
+        <v>-1974.476756756761</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.02367954842509904</v>
+        <v>-0.02653603388207946</v>
       </c>
       <c r="I162" t="n">
-        <v>0.02367954842509904</v>
+        <v>0.02653603388207946</v>
       </c>
     </row>
     <row r="163">
@@ -5801,10 +5801,10 @@
         <v>10680.97</v>
       </c>
       <c r="D163" t="n">
-        <v>1717</v>
+        <v>1467</v>
       </c>
       <c r="E163" t="n">
-        <v>11003.44730343623</v>
+        <v>11073.89503749148</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5812,13 +5812,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>322.4773034362261</v>
+        <v>392.9250374914791</v>
       </c>
       <c r="H163" t="n">
-        <v>0.03019176193138133</v>
+        <v>0.03678739267046711</v>
       </c>
       <c r="I163" t="n">
-        <v>0.03019176193138133</v>
+        <v>0.03678739267046711</v>
       </c>
     </row>
     <row r="164">
@@ -5900,10 +5900,10 @@
         <v>25921.71</v>
       </c>
       <c r="D166" t="n">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="E166" t="n">
-        <v>25861.62441441441</v>
+        <v>25789.9076284585</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5911,13 +5911,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>-60.08558558558434</v>
+        <v>-131.8023715415002</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.002317963806615549</v>
+        <v>-0.005084632593355152</v>
       </c>
       <c r="I166" t="n">
-        <v>0.002317963806615549</v>
+        <v>0.005084632593355152</v>
       </c>
     </row>
     <row r="167">
@@ -5933,10 +5933,10 @@
         <v>21285.17</v>
       </c>
       <c r="D167" t="n">
-        <v>1729</v>
+        <v>1404</v>
       </c>
       <c r="E167" t="n">
-        <v>21101.60113360324</v>
+        <v>20916.06435897436</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5944,13 +5944,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>-183.568866396763</v>
+        <v>-369.1056410256424</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.008624261229614939</v>
+        <v>-0.01734097688792912</v>
       </c>
       <c r="I167" t="n">
-        <v>0.008624261229614939</v>
+        <v>0.01734097688792912</v>
       </c>
     </row>
     <row r="168">
@@ -6032,7 +6032,7 @@
         <v>37194.96</v>
       </c>
       <c r="D170" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E170" t="n">
         <v>37194.96</v>
@@ -6065,10 +6065,10 @@
         <v>27666.4</v>
       </c>
       <c r="D171" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E171" t="n">
-        <v>27666.4</v>
+        <v>27666.40000000001</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -6076,13 +6076,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1.3149447731153e-16</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1.3149447731153e-16</v>
       </c>
     </row>
     <row r="172">
@@ -6098,7 +6098,7 @@
         <v>34907.91</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>38177.35</v>
@@ -6230,10 +6230,10 @@
         <v>22701.91</v>
       </c>
       <c r="D176" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E176" t="n">
-        <v>21689.80692307692</v>
+        <v>21690.29485148515</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6241,13 +6241,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>-1012.103076923078</v>
+        <v>-1011.615148514855</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.04458228743410041</v>
+        <v>-0.04456079459899431</v>
       </c>
       <c r="I176" t="n">
-        <v>0.04458228743410041</v>
+        <v>0.04456079459899431</v>
       </c>
     </row>
     <row r="177">
@@ -6263,10 +6263,10 @@
         <v>28556.71</v>
       </c>
       <c r="D177" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E177" t="n">
-        <v>28650.22368421053</v>
+        <v>28682.72191489362</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -6274,13 +6274,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>93.51368421052757</v>
+        <v>126.0119148936174</v>
       </c>
       <c r="H177" t="n">
-        <v>0.003274665891502472</v>
+        <v>0.004412690218642741</v>
       </c>
       <c r="I177" t="n">
-        <v>0.003274665891502472</v>
+        <v>0.004412690218642741</v>
       </c>
     </row>
     <row r="178">
@@ -6329,10 +6329,10 @@
         <v>23425.45</v>
       </c>
       <c r="D179" t="n">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="E179" t="n">
-        <v>22886.8785319149</v>
+        <v>22957.75285714286</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6340,13 +6340,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>-538.5714680851052</v>
+        <v>-467.6971428571414</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.02299086967742798</v>
+        <v>-0.01996534294355675</v>
       </c>
       <c r="I179" t="n">
-        <v>0.02299086967742798</v>
+        <v>0.01996534294355675</v>
       </c>
     </row>
     <row r="180">
@@ -6362,7 +6362,7 @@
         <v>44704.69</v>
       </c>
       <c r="D180" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E180" t="n">
         <v>44704.69</v>
@@ -6395,10 +6395,10 @@
         <v>26249.95</v>
       </c>
       <c r="D181" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E181" t="n">
-        <v>25727.21628242075</v>
+        <v>25692.57985074627</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6406,13 +6406,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>-522.7337175792491</v>
+        <v>-557.370149253733</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.01991370336245399</v>
+        <v>-0.02123318898716885</v>
       </c>
       <c r="I181" t="n">
-        <v>0.01991370336245399</v>
+        <v>0.02123318898716885</v>
       </c>
     </row>
     <row r="182">
@@ -6494,10 +6494,10 @@
         <v>19883.11</v>
       </c>
       <c r="D184" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E184" t="n">
-        <v>19888.72672064777</v>
+        <v>19890.21721311475</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6505,13 +6505,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5.616720647773036</v>
+        <v>7.107213114752085</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0002824870278227619</v>
+        <v>0.0003574497709237682</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0002824870278227619</v>
+        <v>0.0003574497709237682</v>
       </c>
     </row>
     <row r="185">
@@ -6527,10 +6527,10 @@
         <v>23915.49</v>
       </c>
       <c r="D185" t="n">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="E185" t="n">
-        <v>23895.47285714286</v>
+        <v>23772.91577405858</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6538,13 +6538,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-20.01714285714479</v>
+        <v>-142.5742259414255</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.0008369948872945857</v>
+        <v>-0.005961584978665523</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0008369948872945857</v>
+        <v>0.005961584978665523</v>
       </c>
     </row>
     <row r="186">
@@ -6659,10 +6659,10 @@
         <v>26716.59</v>
       </c>
       <c r="D189" t="n">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E189" t="n">
-        <v>26086.47948275862</v>
+        <v>26067.78739130435</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -6670,13 +6670,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>-630.1105172413809</v>
+        <v>-648.8026086956525</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.02358499034649934</v>
+        <v>-0.02428463395574257</v>
       </c>
       <c r="I189" t="n">
-        <v>0.02358499034649934</v>
+        <v>0.02428463395574257</v>
       </c>
     </row>
     <row r="190">
@@ -6692,7 +6692,7 @@
         <v>45808</v>
       </c>
       <c r="D190" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E190" t="n">
         <v>45943.8</v>
@@ -6725,10 +6725,10 @@
         <v>43315.8</v>
       </c>
       <c r="D191" t="n">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="E191" t="n">
-        <v>43033.77484764543</v>
+        <v>43066.83</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -6736,13 +6736,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>-282.0251523545739</v>
+        <v>-248.9700000000012</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.006510907159848691</v>
+        <v>-0.005747787181582729</v>
       </c>
       <c r="I191" t="n">
-        <v>0.006510907159848691</v>
+        <v>0.005747787181582729</v>
       </c>
     </row>
     <row r="192">
@@ -6758,7 +6758,7 @@
         <v>33364.46</v>
       </c>
       <c r="D192" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E192" t="n">
         <v>33197.08</v>
@@ -6824,10 +6824,10 @@
         <v>9854.469999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E194" t="n">
-        <v>9845.162303206997</v>
+        <v>9839.448823529412</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>-9.307696793002833</v>
+        <v>-15.02117647058731</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.0009445152091388815</v>
+        <v>-0.001524300796550936</v>
       </c>
       <c r="I194" t="n">
-        <v>0.0009445152091388815</v>
+        <v>0.001524300796550936</v>
       </c>
     </row>
     <row r="195">
@@ -6956,10 +6956,10 @@
         <v>19218.23</v>
       </c>
       <c r="D198" t="n">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E198" t="n">
-        <v>18673.135</v>
+        <v>18679.58202643172</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -6967,13 +6967,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>-545.0949999999975</v>
+        <v>-538.6479735682806</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.02836343409356624</v>
+        <v>-0.02802796998309837</v>
       </c>
       <c r="I198" t="n">
-        <v>0.02836343409356624</v>
+        <v>0.02802796998309837</v>
       </c>
     </row>
     <row r="199">
@@ -6989,10 +6989,10 @@
         <v>57408.03</v>
       </c>
       <c r="D199" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E199" t="n">
-        <v>57270.6143119266</v>
+        <v>57299.77142857143</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -7000,13 +7000,13 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>-137.4156880734008</v>
+        <v>-108.2585714285669</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.002393666671254889</v>
+        <v>-0.001885774018522617</v>
       </c>
       <c r="I199" t="n">
-        <v>0.002393666671254889</v>
+        <v>0.001885774018522617</v>
       </c>
     </row>
     <row r="200">
@@ -7055,7 +7055,7 @@
         <v>79500.58</v>
       </c>
       <c r="D201" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E201" t="n">
         <v>44053.16</v>
@@ -7088,7 +7088,7 @@
         <v>45119.8</v>
       </c>
       <c r="D202" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E202" t="n">
         <v>44053.16</v>
@@ -7154,10 +7154,10 @@
         <v>38199</v>
       </c>
       <c r="D204" t="n">
-        <v>1004</v>
+        <v>969</v>
       </c>
       <c r="E204" t="n">
-        <v>38216.70529880478</v>
+        <v>38224.63990712074</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7165,13 +7165,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>17.70529880477989</v>
+        <v>25.63990712074155</v>
       </c>
       <c r="H204" t="n">
-        <v>0.0004635016310578781</v>
+        <v>0.0006712193282740793</v>
       </c>
       <c r="I204" t="n">
-        <v>0.0004635016310578781</v>
+        <v>0.0006712193282740793</v>
       </c>
     </row>
     <row r="205">
@@ -7187,10 +7187,10 @@
         <v>23812.17</v>
       </c>
       <c r="D205" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E205" t="n">
-        <v>23609.099296875</v>
+        <v>23566.63530612245</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -7198,13 +7198,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>-203.0707031250022</v>
+        <v>-245.534693877551</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.008528021726915361</v>
+        <v>-0.01031131114373663</v>
       </c>
       <c r="I205" t="n">
-        <v>0.008528021726915361</v>
+        <v>0.01031131114373663</v>
       </c>
     </row>
     <row r="206">
@@ -7220,7 +7220,7 @@
         <v>15214.08</v>
       </c>
       <c r="D206" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E206" t="n">
         <v>15214.08</v>
@@ -7253,10 +7253,10 @@
         <v>31327.41</v>
       </c>
       <c r="D207" t="n">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="E207" t="n">
-        <v>31240.12109589041</v>
+        <v>31146.91620689655</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -7264,13 +7264,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>-87.28890410959139</v>
+        <v>-180.4937931034474</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.002786342825965868</v>
+        <v>-0.005761529379653389</v>
       </c>
       <c r="I207" t="n">
-        <v>0.002786342825965868</v>
+        <v>0.005761529379653389</v>
       </c>
     </row>
     <row r="208">
@@ -7286,10 +7286,10 @@
         <v>17678.37</v>
       </c>
       <c r="D208" t="n">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="E208" t="n">
-        <v>16866.23632183908</v>
+        <v>16881.8850916497</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -7297,13 +7297,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>-812.1336781609207</v>
+        <v>-796.4849083503032</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.04593939815497247</v>
+        <v>-0.04505420513035439</v>
       </c>
       <c r="I208" t="n">
-        <v>0.04593939815497247</v>
+        <v>0.04505420513035439</v>
       </c>
     </row>
     <row r="209">
@@ -7319,10 +7319,10 @@
         <v>28370</v>
       </c>
       <c r="D209" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E209" t="n">
-        <v>28370.00181818182</v>
+        <v>28547.14</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7330,13 +7330,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.001818181819544407</v>
+        <v>177.1400000000031</v>
       </c>
       <c r="H209" t="n">
-        <v>6.408818539106121e-08</v>
+        <v>0.006243919633415688</v>
       </c>
       <c r="I209" t="n">
-        <v>6.408818539106121e-08</v>
+        <v>0.006243919633415688</v>
       </c>
     </row>
     <row r="210">
@@ -7382,13 +7382,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>34732.4</v>
+        <v>34721.11</v>
       </c>
       <c r="D211" t="n">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="E211" t="n">
-        <v>34737.89681675393</v>
+        <v>34757.50212539851</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7396,13 +7396,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.496816753926396</v>
+        <v>36.39212539850996</v>
       </c>
       <c r="H211" t="n">
-        <v>0.0001582619327753451</v>
+        <v>0.001048126785074266</v>
       </c>
       <c r="I211" t="n">
-        <v>0.0001582619327753451</v>
+        <v>0.001048126785074266</v>
       </c>
     </row>
     <row r="212">
@@ -7484,10 +7484,10 @@
         <v>20422.35</v>
       </c>
       <c r="D214" t="n">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="E214" t="n">
-        <v>20395.97726027397</v>
+        <v>20383.65408940398</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -7495,13 +7495,13 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>-26.37273972602998</v>
+        <v>-38.69591059602681</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.00129136655311607</v>
+        <v>-0.001894782461177426</v>
       </c>
       <c r="I214" t="n">
-        <v>0.00129136655311607</v>
+        <v>0.001894782461177426</v>
       </c>
     </row>
     <row r="215">
@@ -7550,7 +7550,7 @@
         <v>53718.66</v>
       </c>
       <c r="D216" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E216" t="n">
         <v>57402.59</v>
@@ -7561,13 +7561,13 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3683.929999999993</v>
+        <v>3683.93</v>
       </c>
       <c r="H216" t="n">
-        <v>0.06857821844401914</v>
+        <v>0.06857821844401926</v>
       </c>
       <c r="I216" t="n">
-        <v>0.06857821844401914</v>
+        <v>0.06857821844401926</v>
       </c>
     </row>
     <row r="217">
@@ -7616,7 +7616,7 @@
         <v>13995.73</v>
       </c>
       <c r="D218" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E218" t="n">
         <v>13977.22</v>
@@ -7627,13 +7627,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-18.50999999999658</v>
+        <v>-18.5099999999984</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.001322546233743905</v>
+        <v>-0.001322546233744035</v>
       </c>
       <c r="I218" t="n">
-        <v>0.001322546233743905</v>
+        <v>0.001322546233744035</v>
       </c>
     </row>
     <row r="219">
@@ -7649,7 +7649,7 @@
         <v>46162.66</v>
       </c>
       <c r="D219" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E219" t="n">
         <v>46455.98</v>
@@ -7748,7 +7748,7 @@
         <v>14051.64</v>
       </c>
       <c r="D222" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E222" t="n">
         <v>13685.95</v>
@@ -7781,10 +7781,10 @@
         <v>32239.23</v>
       </c>
       <c r="D223" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E223" t="n">
-        <v>31801.73097902098</v>
+        <v>31703.88647058824</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -7792,13 +7792,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>-437.4990209790194</v>
+        <v>-535.3435294117589</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.01357039299570801</v>
+        <v>-0.01660534477441797</v>
       </c>
       <c r="I223" t="n">
-        <v>0.01357039299570801</v>
+        <v>0.01660534477441797</v>
       </c>
     </row>
     <row r="224">
@@ -7814,10 +7814,10 @@
         <v>48785.61</v>
       </c>
       <c r="D224" t="n">
-        <v>1331</v>
+        <v>1261</v>
       </c>
       <c r="E224" t="n">
-        <v>48780.38152516904</v>
+        <v>48759.75076130055</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -7825,13 +7825,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>-5.228474830961204</v>
+        <v>-25.85923869944963</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.0001071724803884015</v>
+        <v>-0.0005300587345212991</v>
       </c>
       <c r="I224" t="n">
-        <v>0.0001071724803884015</v>
+        <v>0.0005300587345212991</v>
       </c>
     </row>
     <row r="225">
@@ -7847,10 +7847,10 @@
         <v>71466.45</v>
       </c>
       <c r="D225" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E225" t="n">
-        <v>70575.40196581197</v>
+        <v>70566.45206896552</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -7858,13 +7858,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>-891.048034188032</v>
+        <v>-899.9979310344788</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.01246806066606124</v>
+        <v>-0.01259329281130487</v>
       </c>
       <c r="I225" t="n">
-        <v>0.01246806066606124</v>
+        <v>0.01259329281130487</v>
       </c>
     </row>
     <row r="226">
@@ -7880,7 +7880,7 @@
         <v>10565.22</v>
       </c>
       <c r="D226" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E226" t="n">
         <v>10023.63</v>
@@ -7913,7 +7913,7 @@
         <v>57560.43</v>
       </c>
       <c r="D227" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E227" t="n">
         <v>57560.43</v>
@@ -7946,10 +7946,10 @@
         <v>13535.16</v>
       </c>
       <c r="D228" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E228" t="n">
-        <v>13053.4192920354</v>
+        <v>13028.19518518519</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>-481.7407079646018</v>
+        <v>-506.9648148148135</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.0355918000204358</v>
+        <v>-0.03745539874037791</v>
       </c>
       <c r="I228" t="n">
-        <v>0.0355918000204358</v>
+        <v>0.03745539874037791</v>
       </c>
     </row>
     <row r="229">
@@ -7979,7 +7979,7 @@
         <v>69409.47</v>
       </c>
       <c r="D229" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E229" t="n">
         <v>76114.38</v>
@@ -8045,10 +8045,10 @@
         <v>16351.45</v>
       </c>
       <c r="D231" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E231" t="n">
-        <v>16616.58100156494</v>
+        <v>16609.25600633914</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -8056,13 +8056,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>265.1310015649433</v>
+        <v>257.8060063391422</v>
       </c>
       <c r="H231" t="n">
-        <v>0.0162145254130333</v>
+        <v>0.0157665532010398</v>
       </c>
       <c r="I231" t="n">
-        <v>0.0162145254130333</v>
+        <v>0.0157665532010398</v>
       </c>
     </row>
     <row r="232">
@@ -8078,7 +8078,7 @@
         <v>72482.36</v>
       </c>
       <c r="D232" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E232" t="n">
         <v>72482.36</v>
@@ -8144,10 +8144,10 @@
         <v>19283.91</v>
       </c>
       <c r="D234" t="n">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E234" t="n">
-        <v>19318.72278350516</v>
+        <v>19298.8585115304</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -8155,13 +8155,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>34.8127835051564</v>
+        <v>14.94851153039781</v>
       </c>
       <c r="H234" t="n">
-        <v>0.001805276186476519</v>
+        <v>0.0007751805277248136</v>
       </c>
       <c r="I234" t="n">
-        <v>0.001805276186476519</v>
+        <v>0.0007751805277248136</v>
       </c>
     </row>
     <row r="235">
@@ -8243,10 +8243,10 @@
         <v>23917.16</v>
       </c>
       <c r="D237" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E237" t="n">
-        <v>21175.12253731343</v>
+        <v>21190.65741116751</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -8254,13 +8254,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-2742.037462686567</v>
+        <v>-2726.502588832489</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.1146472851578769</v>
+        <v>-0.1139977567918803</v>
       </c>
       <c r="I237" t="n">
-        <v>0.1146472851578769</v>
+        <v>0.1139977567918803</v>
       </c>
     </row>
     <row r="238">
@@ -8309,7 +8309,7 @@
         <v>23535.82</v>
       </c>
       <c r="D239" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E239" t="n">
         <v>22050.59</v>
@@ -8320,13 +8320,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>-1485.229999999996</v>
+        <v>-1485.23</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.06310508832919337</v>
+        <v>-0.06310508832919352</v>
       </c>
       <c r="I239" t="n">
-        <v>0.06310508832919337</v>
+        <v>0.06310508832919352</v>
       </c>
     </row>
     <row r="240">
@@ -8441,10 +8441,10 @@
         <v>25398.04</v>
       </c>
       <c r="D243" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E243" t="n">
-        <v>24956.62021582734</v>
+        <v>25015.83117647059</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -8452,13 +8452,13 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>-441.4197841726636</v>
+        <v>-382.2088235294141</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.01738007279981698</v>
+        <v>-0.01504875271987185</v>
       </c>
       <c r="I243" t="n">
-        <v>0.01738007279981698</v>
+        <v>0.01504875271987185</v>
       </c>
     </row>
     <row r="244">
@@ -8474,10 +8474,10 @@
         <v>35975.28</v>
       </c>
       <c r="D244" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E244" t="n">
-        <v>35986.26379310345</v>
+        <v>35997.37023121387</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -8485,13 +8485,13 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>10.98379310344899</v>
+        <v>22.09023121387145</v>
       </c>
       <c r="H244" t="n">
-        <v>0.0003053150136273849</v>
+        <v>0.0006140391739514313</v>
       </c>
       <c r="I244" t="n">
-        <v>0.0003053150136273849</v>
+        <v>0.0006140391739514313</v>
       </c>
     </row>
     <row r="245">
@@ -8606,10 +8606,10 @@
         <v>24897.24</v>
       </c>
       <c r="D248" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E248" t="n">
-        <v>24897.24444444444</v>
+        <v>24899.94953271028</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -8617,13 +8617,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.004444444442924578</v>
+        <v>2.709532710279746</v>
       </c>
       <c r="H248" t="n">
-        <v>1.78511531516127e-07</v>
+        <v>0.0001088286376433591</v>
       </c>
       <c r="I248" t="n">
-        <v>1.78511531516127e-07</v>
+        <v>0.0001088286376433591</v>
       </c>
     </row>
     <row r="249">
@@ -8936,7 +8936,7 @@
         <v>25383.79</v>
       </c>
       <c r="D258" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E258" t="n">
         <v>26036.41</v>
@@ -8969,7 +8969,7 @@
         <v>39279.01</v>
       </c>
       <c r="D259" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E259" t="n">
         <v>40008.99</v>
@@ -9134,10 +9134,10 @@
         <v>40350.19</v>
       </c>
       <c r="D264" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E264" t="n">
-        <v>40788.00047619048</v>
+        <v>40983.21983606557</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -9145,13 +9145,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>437.810476190476</v>
+        <v>633.0298360655725</v>
       </c>
       <c r="H264" t="n">
-        <v>0.01085027049910982</v>
+        <v>0.01568839790012321</v>
       </c>
       <c r="I264" t="n">
-        <v>0.01085027049910982</v>
+        <v>0.01568839790012321</v>
       </c>
     </row>
     <row r="265">
@@ -9233,10 +9233,10 @@
         <v>31362.39</v>
       </c>
       <c r="D267" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E267" t="n">
-        <v>31389.37727272727</v>
+        <v>32060.5375</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -9244,13 +9244,13 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>26.9872727272741</v>
+        <v>698.1475000000028</v>
       </c>
       <c r="H267" t="n">
-        <v>0.0008604979635567986</v>
+        <v>0.0222606599815895</v>
       </c>
       <c r="I267" t="n">
-        <v>0.0008604979635567986</v>
+        <v>0.0222606599815895</v>
       </c>
     </row>
     <row r="268">
@@ -9266,7 +9266,7 @@
         <v>36529.99</v>
       </c>
       <c r="D268" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E268" t="n">
         <v>36529.99</v>
@@ -9299,7 +9299,7 @@
         <v>9757.83</v>
       </c>
       <c r="D269" t="n">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E269" t="n">
         <v>9757.83</v>
@@ -9398,10 +9398,10 @@
         <v>12266.13</v>
       </c>
       <c r="D272" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E272" t="n">
-        <v>12266.1311627907</v>
+        <v>12267.155</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -9409,13 +9409,13 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.001162790696980665</v>
+        <v>1.024999999997817</v>
       </c>
       <c r="H272" t="n">
-        <v>9.479686722549528e-08</v>
+        <v>8.356343850895247e-05</v>
       </c>
       <c r="I272" t="n">
-        <v>9.479686722549528e-08</v>
+        <v>8.356343850895247e-05</v>
       </c>
     </row>
     <row r="273">
@@ -9431,10 +9431,10 @@
         <v>11646.81</v>
       </c>
       <c r="D273" t="n">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="E273" t="n">
-        <v>11648.10113636364</v>
+        <v>11752.27545454545</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.291136363637634</v>
+        <v>105.4654545454541</v>
       </c>
       <c r="H273" t="n">
-        <v>0.0001108575106520699</v>
+        <v>0.009055308238518026</v>
       </c>
       <c r="I273" t="n">
-        <v>0.0001108575106520699</v>
+        <v>0.009055308238518026</v>
       </c>
     </row>
     <row r="274">
@@ -9464,7 +9464,7 @@
         <v>28201.38</v>
       </c>
       <c r="D274" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E274" t="n">
         <v>28472.09</v>
@@ -9530,10 +9530,10 @@
         <v>47866.34</v>
       </c>
       <c r="D276" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E276" t="n">
-        <v>47854.361875</v>
+        <v>47844.24655737705</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -9541,13 +9541,13 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>-11.97812500000146</v>
+        <v>-22.09344262295053</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.0002502410879963134</v>
+        <v>-0.000461565321746984</v>
       </c>
       <c r="I276" t="n">
-        <v>0.0002502410879963134</v>
+        <v>0.000461565321746984</v>
       </c>
     </row>
     <row r="277">
@@ -9662,10 +9662,10 @@
         <v>13494.34</v>
       </c>
       <c r="D280" t="n">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E280" t="n">
-        <v>13533.63024390244</v>
+        <v>13548.31005076142</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -9673,13 +9673,13 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>39.29024390244012</v>
+        <v>53.97005076142159</v>
       </c>
       <c r="H280" t="n">
-        <v>0.002911609156315916</v>
+        <v>0.003999458347827429</v>
       </c>
       <c r="I280" t="n">
-        <v>0.002911609156315916</v>
+        <v>0.003999458347827429</v>
       </c>
     </row>
     <row r="281">
@@ -9695,7 +9695,7 @@
         <v>9148.02</v>
       </c>
       <c r="D281" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E281" t="n">
         <v>9825.719999999999</v>
@@ -9728,10 +9728,10 @@
         <v>21606.52</v>
       </c>
       <c r="D282" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E282" t="n">
-        <v>21829.99196078431</v>
+        <v>21854.77316831683</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -9739,13 +9739,13 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>223.4719607843144</v>
+        <v>248.2531683168309</v>
       </c>
       <c r="H282" t="n">
-        <v>0.01034280211641275</v>
+        <v>0.01148973403939324</v>
       </c>
       <c r="I282" t="n">
-        <v>0.01034280211641275</v>
+        <v>0.01148973403939324</v>
       </c>
     </row>
     <row r="283">
@@ -9827,10 +9827,10 @@
         <v>35302.57</v>
       </c>
       <c r="D285" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E285" t="n">
-        <v>35302.57454545455</v>
+        <v>35266.92000000001</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -9838,13 +9838,13 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.004545454554317985</v>
+        <v>-35.64999999999418</v>
       </c>
       <c r="H285" t="n">
-        <v>1.287570438729527e-07</v>
+        <v>-0.001009841493126256</v>
       </c>
       <c r="I285" t="n">
-        <v>1.287570438729527e-07</v>
+        <v>0.001009841493126256</v>
       </c>
     </row>
     <row r="286">
@@ -9860,10 +9860,10 @@
         <v>22401.15</v>
       </c>
       <c r="D286" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E286" t="n">
-        <v>22375.90454545454</v>
+        <v>22399.0203125</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -9871,13 +9871,13 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>-25.2454545454566</v>
+        <v>-2.129687500000728</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.001126971362874522</v>
+        <v>-9.507045397226158e-05</v>
       </c>
       <c r="I286" t="n">
-        <v>0.001126971362874522</v>
+        <v>9.507045397226158e-05</v>
       </c>
     </row>
     <row r="287">
@@ -9959,7 +9959,7 @@
         <v>20706.11</v>
       </c>
       <c r="D289" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E289" t="n">
         <v>20466.86</v>
@@ -9992,10 +9992,10 @@
         <v>28009.47</v>
       </c>
       <c r="D290" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E290" t="n">
-        <v>27862.05373493976</v>
+        <v>27826.9475</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -10003,13 +10003,13 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>-147.4162650602411</v>
+        <v>-182.5224999999991</v>
       </c>
       <c r="H290" t="n">
-        <v>-0.005263086558233381</v>
+        <v>-0.006516456755518727</v>
       </c>
       <c r="I290" t="n">
-        <v>0.005263086558233381</v>
+        <v>0.006516456755518727</v>
       </c>
     </row>
     <row r="291">
@@ -10124,7 +10124,7 @@
         <v>50374.91</v>
       </c>
       <c r="D294" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E294" t="n">
         <v>49919.85</v>
@@ -10157,7 +10157,7 @@
         <v>19064.49</v>
       </c>
       <c r="D295" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E295" t="n">
         <v>18321.05</v>
@@ -10223,10 +10223,10 @@
         <v>49626.59</v>
       </c>
       <c r="D297" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E297" t="n">
-        <v>51149.18555555556</v>
+        <v>51338.17697674418</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -10234,13 +10234,13 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1522.595555555556</v>
+        <v>1711.586976744176</v>
       </c>
       <c r="H297" t="n">
-        <v>0.03068104327852378</v>
+        <v>0.03448931261938763</v>
       </c>
       <c r="I297" t="n">
-        <v>0.03068104327852378</v>
+        <v>0.03448931261938763</v>
       </c>
     </row>
     <row r="298">
@@ -10289,7 +10289,7 @@
         <v>17875.14</v>
       </c>
       <c r="D299" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E299" t="n">
         <v>17875.14</v>
@@ -10454,7 +10454,7 @@
         <v>18696.64</v>
       </c>
       <c r="D304" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E304" t="n">
         <v>18760.83</v>
@@ -10487,7 +10487,7 @@
         <v>18474.11</v>
       </c>
       <c r="D305" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E305" t="n">
         <v>18148.28</v>
@@ -10520,10 +10520,10 @@
         <v>23591.48</v>
       </c>
       <c r="D306" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E306" t="n">
-        <v>25291.64111111111</v>
+        <v>25324.03741573034</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -10531,13 +10531,13 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1700.161111111112</v>
+        <v>1732.557415730338</v>
       </c>
       <c r="H306" t="n">
-        <v>0.07206674236254412</v>
+        <v>0.0734399628904307</v>
       </c>
       <c r="I306" t="n">
-        <v>0.07206674236254412</v>
+        <v>0.0734399628904307</v>
       </c>
     </row>
     <row r="307">
@@ -10751,7 +10751,7 @@
         <v>38026.03</v>
       </c>
       <c r="D313" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E313" t="n">
         <v>37181.71</v>
@@ -10850,10 +10850,10 @@
         <v>23151.4</v>
       </c>
       <c r="D316" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E316" t="n">
-        <v>22366.57688073394</v>
+        <v>22384.26444444444</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -10861,13 +10861,13 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>-784.8231192660569</v>
+        <v>-767.1355555555565</v>
       </c>
       <c r="H316" t="n">
-        <v>-0.03389959653697214</v>
+        <v>-0.033135601110756</v>
       </c>
       <c r="I316" t="n">
-        <v>0.03389959653697214</v>
+        <v>0.033135601110756</v>
       </c>
     </row>
     <row r="317">
@@ -10883,7 +10883,7 @@
         <v>31892.51</v>
       </c>
       <c r="D317" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E317" t="n">
         <v>32080.11</v>
@@ -11114,7 +11114,7 @@
         <v>24446.03</v>
       </c>
       <c r="D324" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E324" t="n">
         <v>24446.03</v>
@@ -11147,7 +11147,7 @@
         <v>21191.91</v>
       </c>
       <c r="D325" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E325" t="n">
         <v>21242.24</v>
@@ -11246,10 +11246,10 @@
         <v>22950.22</v>
       </c>
       <c r="D328" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E328" t="n">
-        <v>25954.47666666667</v>
+        <v>28237.86538461538</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -11257,13 +11257,13 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3004.256666666664</v>
+        <v>5287.645384615382</v>
       </c>
       <c r="H328" t="n">
-        <v>0.1309031750748648</v>
+        <v>0.2303962831125532</v>
       </c>
       <c r="I328" t="n">
-        <v>0.1309031750748648</v>
+        <v>0.2303962831125532</v>
       </c>
     </row>
     <row r="329">
@@ -11279,10 +11279,10 @@
         <v>22381.76</v>
       </c>
       <c r="D329" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E329" t="n">
-        <v>22606.49421052631</v>
+        <v>22627.81255319149</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>224.7342105263124</v>
+        <v>246.0525531914864</v>
       </c>
       <c r="H329" t="n">
-        <v>0.01004095346059972</v>
+        <v>0.01099344078354367</v>
       </c>
       <c r="I329" t="n">
-        <v>0.01004095346059972</v>
+        <v>0.01099344078354367</v>
       </c>
     </row>
     <row r="330">
@@ -11411,10 +11411,10 @@
         <v>37199.43</v>
       </c>
       <c r="D333" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E333" t="n">
-        <v>33234.46761904762</v>
+        <v>32251.27</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -11422,13 +11422,13 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>-3964.962380952376</v>
+        <v>-4948.16</v>
       </c>
       <c r="H333" t="n">
-        <v>-0.1065866434230948</v>
+        <v>-0.1330170919285591</v>
       </c>
       <c r="I333" t="n">
-        <v>0.1065866434230948</v>
+        <v>0.1330170919285591</v>
       </c>
     </row>
     <row r="334">
@@ -11675,7 +11675,7 @@
         <v>30917.08</v>
       </c>
       <c r="D341" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E341" t="n">
         <v>33295.74</v>
@@ -11708,10 +11708,10 @@
         <v>19428.64</v>
       </c>
       <c r="D342" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E342" t="n">
-        <v>18987.15411764706</v>
+        <v>19016.90528301887</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -11719,13 +11719,13 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>-441.4858823529394</v>
+        <v>-411.7347169811292</v>
       </c>
       <c r="H342" t="n">
-        <v>-0.02272345786184413</v>
+        <v>-0.02119215328407594</v>
       </c>
       <c r="I342" t="n">
-        <v>0.02272345786184413</v>
+        <v>0.02119215328407594</v>
       </c>
     </row>
     <row r="343">
@@ -11774,10 +11774,10 @@
         <v>15188.55</v>
       </c>
       <c r="D344" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E344" t="n">
-        <v>15064.00880597015</v>
+        <v>14778.17655737705</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -11785,13 +11785,13 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>-124.5411940298527</v>
+        <v>-410.373442622953</v>
       </c>
       <c r="H344" t="n">
-        <v>-0.008199676337099506</v>
+        <v>-0.02701860563536038</v>
       </c>
       <c r="I344" t="n">
-        <v>0.008199676337099506</v>
+        <v>0.02701860563536038</v>
       </c>
     </row>
     <row r="345">
@@ -11807,10 +11807,10 @@
         <v>10959.64</v>
       </c>
       <c r="D345" t="n">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="E345" t="n">
-        <v>10949.08333895447</v>
+        <v>10936.38714038128</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -11818,13 +11818,13 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>-10.55666104552984</v>
+        <v>-23.25285961871487</v>
       </c>
       <c r="H345" t="n">
-        <v>-0.0009632306394671573</v>
+        <v>-0.002121680969330641</v>
       </c>
       <c r="I345" t="n">
-        <v>0.0009632306394671573</v>
+        <v>0.002121680969330641</v>
       </c>
     </row>
     <row r="346">
@@ -11840,7 +11840,7 @@
         <v>8840.52</v>
       </c>
       <c r="D346" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E346" t="n">
         <v>9534.17</v>
@@ -11873,10 +11873,10 @@
         <v>9774.98</v>
       </c>
       <c r="D347" t="n">
-        <v>1473</v>
+        <v>1367</v>
       </c>
       <c r="E347" t="n">
-        <v>9839.408811948404</v>
+        <v>9888.434689100219</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -11884,13 +11884,13 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>64.42881194840447</v>
+        <v>113.4546891002192</v>
       </c>
       <c r="H347" t="n">
-        <v>0.006591196293844537</v>
+        <v>0.01160664155836832</v>
       </c>
       <c r="I347" t="n">
-        <v>0.006591196293844537</v>
+        <v>0.01160664155836832</v>
       </c>
     </row>
     <row r="348">
@@ -11906,7 +11906,7 @@
         <v>18832.79</v>
       </c>
       <c r="D348" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E348" t="n">
         <v>18832.79</v>
@@ -11939,10 +11939,10 @@
         <v>16109.96</v>
       </c>
       <c r="D349" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E349" t="n">
-        <v>16111.00617283951</v>
+        <v>16117.09913793103</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -11950,13 +11950,13 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>1.046172839505743</v>
+        <v>7.139137931033474</v>
       </c>
       <c r="H349" t="n">
-        <v>6.493950571607524e-05</v>
+        <v>0.0004431505684082067</v>
       </c>
       <c r="I349" t="n">
-        <v>6.493950571607524e-05</v>
+        <v>0.0004431505684082067</v>
       </c>
     </row>
     <row r="350">
@@ -11972,10 +11972,10 @@
         <v>8405.360000000001</v>
       </c>
       <c r="D350" t="n">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="E350" t="n">
-        <v>8405.360000000001</v>
+        <v>8360.960000000001</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -11983,13 +11983,13 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
+        <v>-44.39999999999964</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>-0.005282343647386862</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>0.005282343647386862</v>
       </c>
     </row>
     <row r="351">
@@ -12071,10 +12071,10 @@
         <v>16642.34</v>
       </c>
       <c r="D353" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E353" t="n">
-        <v>15049.02258064516</v>
+        <v>15072.91157024793</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -12082,13 +12082,13 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>-1593.317419354838</v>
+        <v>-1569.428429752066</v>
       </c>
       <c r="H353" t="n">
-        <v>-0.09573878549259529</v>
+        <v>-0.09430335095617962</v>
       </c>
       <c r="I353" t="n">
-        <v>0.09573878549259529</v>
+        <v>0.09430335095617962</v>
       </c>
     </row>
     <row r="354">
@@ -12236,10 +12236,10 @@
         <v>8053.860000000001</v>
       </c>
       <c r="D358" t="n">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E358" t="n">
-        <v>8122.275320197045</v>
+        <v>8108.940126582279</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -12247,13 +12247,13 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>68.41532019704482</v>
+        <v>55.08012658227835</v>
       </c>
       <c r="H358" t="n">
-        <v>0.008494724293325786</v>
+        <v>0.006838972440826927</v>
       </c>
       <c r="I358" t="n">
-        <v>0.008494724293325786</v>
+        <v>0.006838972440826927</v>
       </c>
     </row>
     <row r="359">
@@ -12269,10 +12269,10 @@
         <v>8104.21</v>
       </c>
       <c r="D359" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E359" t="n">
-        <v>8156.640000000001</v>
+        <v>8156.64</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -12280,13 +12280,13 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>52.4300000000012</v>
+        <v>52.43000000000029</v>
       </c>
       <c r="H359" t="n">
-        <v>0.006469476975547425</v>
+        <v>0.006469476975547313</v>
       </c>
       <c r="I359" t="n">
-        <v>0.006469476975547425</v>
+        <v>0.006469476975547313</v>
       </c>
     </row>
     <row r="360">
@@ -12302,10 +12302,10 @@
         <v>12885.22</v>
       </c>
       <c r="D360" t="n">
-        <v>910</v>
+        <v>838</v>
       </c>
       <c r="E360" t="n">
-        <v>12917.06189010989</v>
+        <v>12899.51577565632</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -12313,13 +12313,13 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>31.84189010988848</v>
+        <v>14.2957756563228</v>
       </c>
       <c r="H360" t="n">
-        <v>0.002471194912456945</v>
+        <v>0.001109470824426964</v>
       </c>
       <c r="I360" t="n">
-        <v>0.002471194912456945</v>
+        <v>0.001109470824426964</v>
       </c>
     </row>
     <row r="361">
@@ -12335,7 +12335,7 @@
         <v>8415.77</v>
       </c>
       <c r="D361" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E361" t="n">
         <v>8282.24</v>
@@ -12368,7 +12368,7 @@
         <v>13409.93</v>
       </c>
       <c r="D362" t="n">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="E362" t="n">
         <v>13409.93</v>
@@ -12379,13 +12379,13 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>-1.356449588883653e-16</v>
       </c>
       <c r="I362" t="n">
-        <v>0</v>
+        <v>1.356449588883653e-16</v>
       </c>
     </row>
     <row r="363">
@@ -12434,10 +12434,10 @@
         <v>16911.66</v>
       </c>
       <c r="D364" t="n">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E364" t="n">
-        <v>16931.5177661431</v>
+        <v>16936.74156028369</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -12445,13 +12445,13 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>19.85776614310453</v>
+        <v>25.0815602836883</v>
       </c>
       <c r="H364" t="n">
-        <v>0.001174205615717471</v>
+        <v>0.001483092746879272</v>
       </c>
       <c r="I364" t="n">
-        <v>0.001174205615717471</v>
+        <v>0.001483092746879272</v>
       </c>
     </row>
     <row r="365">
@@ -12467,10 +12467,10 @@
         <v>24818.68</v>
       </c>
       <c r="D365" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E365" t="n">
-        <v>25274.22727810651</v>
+        <v>25366.37789808918</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -12478,13 +12478,13 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>455.5472781065109</v>
+        <v>547.6978980891763</v>
       </c>
       <c r="H365" t="n">
-        <v>0.01835501638711289</v>
+        <v>0.02206797050000952</v>
       </c>
       <c r="I365" t="n">
-        <v>0.01835501638711289</v>
+        <v>0.02206797050000952</v>
       </c>
     </row>
     <row r="366">
@@ -12500,10 +12500,10 @@
         <v>12683.06</v>
       </c>
       <c r="D366" t="n">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="E366" t="n">
-        <v>12359.9126984127</v>
+        <v>12339.1858071506</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -12511,13 +12511,13 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>-323.1473015873016</v>
+        <v>-343.8741928494037</v>
       </c>
       <c r="H366" t="n">
-        <v>-0.0254786543300514</v>
+        <v>-0.02711287282796137</v>
       </c>
       <c r="I366" t="n">
-        <v>0.0254786543300514</v>
+        <v>0.02711287282796137</v>
       </c>
     </row>
     <row r="367">
@@ -12566,7 +12566,7 @@
         <v>16161</v>
       </c>
       <c r="D368" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E368" t="n">
         <v>15529.27</v>
@@ -12599,10 +12599,10 @@
         <v>20385.45</v>
       </c>
       <c r="D369" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E369" t="n">
-        <v>20151.29724137931</v>
+        <v>20116.64315789474</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>-234.1527586206867</v>
+        <v>-268.8068421052631</v>
       </c>
       <c r="H369" t="n">
-        <v>-0.01148626881529163</v>
+        <v>-0.01318621085653066</v>
       </c>
       <c r="I369" t="n">
-        <v>0.01148626881529163</v>
+        <v>0.01318621085653066</v>
       </c>
     </row>
     <row r="370">
@@ -12632,10 +12632,10 @@
         <v>9881.16</v>
       </c>
       <c r="D370" t="n">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E370" t="n">
-        <v>9489.468994974875</v>
+        <v>9496.449255319149</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -12643,13 +12643,13 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>-391.6910050251245</v>
+        <v>-384.7107446808513</v>
       </c>
       <c r="H370" t="n">
-        <v>-0.03964018445457056</v>
+        <v>-0.03893376331127634</v>
       </c>
       <c r="I370" t="n">
-        <v>0.03964018445457056</v>
+        <v>0.03893376331127634</v>
       </c>
     </row>
     <row r="371">
@@ -12665,10 +12665,10 @@
         <v>24654.86</v>
       </c>
       <c r="D371" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E371" t="n">
-        <v>24474.16294117647</v>
+        <v>24424.47</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -12676,13 +12676,13 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>-180.6970588235272</v>
+        <v>-230.3899999999994</v>
       </c>
       <c r="H371" t="n">
-        <v>-0.007329064485603535</v>
+        <v>-0.009344607919087734</v>
       </c>
       <c r="I371" t="n">
-        <v>0.007329064485603535</v>
+        <v>0.009344607919087734</v>
       </c>
     </row>
     <row r="372">
@@ -12698,7 +12698,7 @@
         <v>8017.17</v>
       </c>
       <c r="D372" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E372" t="n">
         <v>7560.5</v>
@@ -12731,10 +12731,10 @@
         <v>9112.4</v>
       </c>
       <c r="D373" t="n">
-        <v>1023</v>
+        <v>951</v>
       </c>
       <c r="E373" t="n">
-        <v>9068.709286412513</v>
+        <v>9076.167402733963</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -12742,13 +12742,13 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>-43.69071358748624</v>
+        <v>-36.23259726603646</v>
       </c>
       <c r="H373" t="n">
-        <v>-0.004794643956310768</v>
+        <v>-0.003976185995570483</v>
       </c>
       <c r="I373" t="n">
-        <v>0.004794643956310768</v>
+        <v>0.003976185995570483</v>
       </c>
     </row>
     <row r="374">
@@ -12797,10 +12797,10 @@
         <v>11951.86</v>
       </c>
       <c r="D375" t="n">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="E375" t="n">
-        <v>11696.19393678161</v>
+        <v>11643.34904024768</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -12808,13 +12808,13 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>-255.6660632183903</v>
+        <v>-308.5109597523242</v>
       </c>
       <c r="H375" t="n">
-        <v>-0.02139132011405675</v>
+        <v>-0.02581279899131383</v>
       </c>
       <c r="I375" t="n">
-        <v>0.02139132011405675</v>
+        <v>0.02581279899131383</v>
       </c>
     </row>
     <row r="376">
@@ -12830,7 +12830,7 @@
         <v>11364.7</v>
       </c>
       <c r="D376" t="n">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E376" t="n">
         <v>10574.32</v>
@@ -12896,7 +12896,7 @@
         <v>10232.58</v>
       </c>
       <c r="D378" t="n">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E378" t="n">
         <v>10539.23</v>
@@ -12929,7 +12929,7 @@
         <v>21210.1</v>
       </c>
       <c r="D379" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E379" t="n">
         <v>21847.2</v>
@@ -12962,10 +12962,10 @@
         <v>13270.8</v>
       </c>
       <c r="D380" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E380" t="n">
-        <v>13348.46379310345</v>
+        <v>13363.99473684211</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -12973,13 +12973,13 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>77.66379310344928</v>
+        <v>93.19473684210607</v>
       </c>
       <c r="H380" t="n">
-        <v>0.005852231448250993</v>
+        <v>0.007022540980355823</v>
       </c>
       <c r="I380" t="n">
-        <v>0.005852231448250993</v>
+        <v>0.007022540980355823</v>
       </c>
     </row>
     <row r="381">
@@ -12995,7 +12995,7 @@
         <v>15775.79</v>
       </c>
       <c r="D381" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E381" t="n">
         <v>16218</v>
@@ -13061,7 +13061,7 @@
         <v>11844.58</v>
       </c>
       <c r="D383" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E383" t="n">
         <v>11844.58</v>
@@ -13127,10 +13127,10 @@
         <v>12968.71</v>
       </c>
       <c r="D385" t="n">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E385" t="n">
-        <v>13024.75905511811</v>
+        <v>13144.43214285714</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -13138,13 +13138,13 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>56.0490551181083</v>
+        <v>175.7221428571411</v>
       </c>
       <c r="H385" t="n">
-        <v>0.004321868182580095</v>
+        <v>0.01354970100011035</v>
       </c>
       <c r="I385" t="n">
-        <v>0.004321868182580095</v>
+        <v>0.01354970100011035</v>
       </c>
     </row>
     <row r="386">
@@ -13160,10 +13160,10 @@
         <v>17387.28</v>
       </c>
       <c r="D386" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E386" t="n">
-        <v>17410.27816479401</v>
+        <v>17419.96589353612</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -13171,13 +13171,13 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>22.99816479400761</v>
+        <v>32.68589353612333</v>
       </c>
       <c r="H386" t="n">
-        <v>0.001322700548562375</v>
+        <v>0.001879873881143188</v>
       </c>
       <c r="I386" t="n">
-        <v>0.001322700548562375</v>
+        <v>0.001879873881143188</v>
       </c>
     </row>
     <row r="387">
@@ -13226,7 +13226,7 @@
         <v>16040.87</v>
       </c>
       <c r="D388" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E388" t="n">
         <v>16017.18</v>
@@ -13259,10 +13259,10 @@
         <v>12599.14</v>
       </c>
       <c r="D389" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E389" t="n">
-        <v>12681.94296296296</v>
+        <v>12724.8975</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -13270,13 +13270,13 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>82.80296296296365</v>
+        <v>125.7575000000015</v>
       </c>
       <c r="H389" t="n">
-        <v>0.006572112299963621</v>
+        <v>0.009981435240818145</v>
       </c>
       <c r="I389" t="n">
-        <v>0.006572112299963621</v>
+        <v>0.009981435240818145</v>
       </c>
     </row>
     <row r="390">
@@ -13325,10 +13325,10 @@
         <v>31344.07</v>
       </c>
       <c r="D391" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E391" t="n">
-        <v>28499.91777777778</v>
+        <v>29836.38</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -13336,13 +13336,13 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>-2844.152222222219</v>
+        <v>-1507.689999999999</v>
       </c>
       <c r="H391" t="n">
-        <v>-0.09073972276804573</v>
+        <v>-0.04810128359207973</v>
       </c>
       <c r="I391" t="n">
-        <v>0.09073972276804573</v>
+        <v>0.04810128359207973</v>
       </c>
     </row>
     <row r="392">
@@ -13358,10 +13358,10 @@
         <v>23482.57</v>
       </c>
       <c r="D392" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E392" t="n">
-        <v>21224.20756097561</v>
+        <v>21181.31</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -13369,13 +13369,13 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>-2258.362439024389</v>
+        <v>-2301.259999999998</v>
       </c>
       <c r="H392" t="n">
-        <v>-0.0961718601935133</v>
+        <v>-0.09799864324901399</v>
       </c>
       <c r="I392" t="n">
-        <v>0.0961718601935133</v>
+        <v>0.09799864324901399</v>
       </c>
     </row>
     <row r="393">
@@ -13391,10 +13391,10 @@
         <v>19112.68</v>
       </c>
       <c r="D393" t="n">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E393" t="n">
-        <v>18273.50210727969</v>
+        <v>18268.05</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -13402,13 +13402,13 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-839.1778927203086</v>
+        <v>-844.630000000001</v>
       </c>
       <c r="H393" t="n">
-        <v>-0.0439068666832861</v>
+        <v>-0.04419212794856613</v>
       </c>
       <c r="I393" t="n">
-        <v>0.0439068666832861</v>
+        <v>0.04419212794856613</v>
       </c>
     </row>
     <row r="394">
@@ -13424,10 +13424,10 @@
         <v>11864.02</v>
       </c>
       <c r="D394" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E394" t="n">
-        <v>12046.61181818182</v>
+        <v>12013.96358490566</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -13435,13 +13435,13 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>182.5918181818179</v>
+        <v>149.9435849056608</v>
       </c>
       <c r="H394" t="n">
-        <v>0.01539038354468535</v>
+        <v>0.01263851417189627</v>
       </c>
       <c r="I394" t="n">
-        <v>0.01539038354468535</v>
+        <v>0.01263851417189627</v>
       </c>
     </row>
     <row r="395">
@@ -13457,10 +13457,10 @@
         <v>11527.63</v>
       </c>
       <c r="D395" t="n">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="E395" t="n">
-        <v>11530.78821782178</v>
+        <v>11546.04217922607</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -13468,13 +13468,13 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>3.158217821781363</v>
+        <v>18.41217922606847</v>
       </c>
       <c r="H395" t="n">
-        <v>0.00027396939542485</v>
+        <v>0.001597221564716119</v>
       </c>
       <c r="I395" t="n">
-        <v>0.00027396939542485</v>
+        <v>0.001597221564716119</v>
       </c>
     </row>
     <row r="396">
@@ -13490,10 +13490,10 @@
         <v>10220.85</v>
       </c>
       <c r="D396" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E396" t="n">
-        <v>11071.13693181818</v>
+        <v>11085.57413793103</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -13501,13 +13501,13 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>850.286931818182</v>
+        <v>864.7241379310344</v>
       </c>
       <c r="H396" t="n">
-        <v>0.08319141087269473</v>
+        <v>0.08460393586942715</v>
       </c>
       <c r="I396" t="n">
-        <v>0.08319141087269473</v>
+        <v>0.08460393586942715</v>
       </c>
     </row>
     <row r="397">
@@ -13523,10 +13523,10 @@
         <v>17816.04</v>
       </c>
       <c r="D397" t="n">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E397" t="n">
-        <v>16699.4775</v>
+        <v>16642.46350746269</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -13534,13 +13534,13 @@
         </is>
       </c>
       <c r="G397" t="n">
-        <v>-1116.5625</v>
+        <v>-1173.576492537315</v>
       </c>
       <c r="H397" t="n">
-        <v>-0.06267175533957041</v>
+        <v>-0.06587190489790745</v>
       </c>
       <c r="I397" t="n">
-        <v>0.06267175533957041</v>
+        <v>0.06587190489790745</v>
       </c>
     </row>
     <row r="398">
@@ -13589,10 +13589,10 @@
         <v>10352.73</v>
       </c>
       <c r="D399" t="n">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E399" t="n">
-        <v>10245.15428571428</v>
+        <v>10251.43419953596</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -13600,13 +13600,13 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>-107.5757142857146</v>
+        <v>-101.2958004640368</v>
       </c>
       <c r="H399" t="n">
-        <v>-0.01039104799272411</v>
+        <v>-0.009784453034517157</v>
       </c>
       <c r="I399" t="n">
-        <v>0.01039104799272411</v>
+        <v>0.009784453034517157</v>
       </c>
     </row>
     <row r="400">
@@ -13721,10 +13721,10 @@
         <v>14130.48</v>
       </c>
       <c r="D403" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E403" t="n">
-        <v>14144.90509803922</v>
+        <v>14189.67020408163</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -13732,13 +13732,13 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>14.42509803921712</v>
+        <v>59.19020408163487</v>
       </c>
       <c r="H403" t="n">
-        <v>0.001020849825286694</v>
+        <v>0.004188831807669299</v>
       </c>
       <c r="I403" t="n">
-        <v>0.001020849825286694</v>
+        <v>0.004188831807669299</v>
       </c>
     </row>
     <row r="404">
@@ -13754,10 +13754,10 @@
         <v>20755.1</v>
       </c>
       <c r="D404" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E404" t="n">
-        <v>20895.0450867052</v>
+        <v>20939.61197604791</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>139.9450867052001</v>
+        <v>184.5119760479029</v>
       </c>
       <c r="H404" t="n">
-        <v>0.006742684289895017</v>
+        <v>0.008889958422166255</v>
       </c>
       <c r="I404" t="n">
-        <v>0.006742684289895017</v>
+        <v>0.008889958422166255</v>
       </c>
     </row>
     <row r="405">
@@ -13787,10 +13787,10 @@
         <v>24978.02</v>
       </c>
       <c r="D405" t="n">
-        <v>1088</v>
+        <v>1002</v>
       </c>
       <c r="E405" t="n">
-        <v>24440.80507352941</v>
+        <v>24547.78710578842</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -13798,13 +13798,13 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>-537.2149264705877</v>
+        <v>-430.2328942115782</v>
       </c>
       <c r="H405" t="n">
-        <v>-0.02150750645850182</v>
+        <v>-0.01722445951326719</v>
       </c>
       <c r="I405" t="n">
-        <v>0.02150750645850182</v>
+        <v>0.01722445951326719</v>
       </c>
     </row>
     <row r="406">
@@ -13853,7 +13853,7 @@
         <v>15969.99</v>
       </c>
       <c r="D407" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E407" t="n">
         <v>16514.27</v>
@@ -13985,10 +13985,10 @@
         <v>42434.14</v>
       </c>
       <c r="D411" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E411" t="n">
-        <v>42541.34999999999</v>
+        <v>42541.35</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -13996,13 +13996,13 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>107.2099999999919</v>
+        <v>107.2099999999991</v>
       </c>
       <c r="H411" t="n">
-        <v>0.002526503423893871</v>
+        <v>0.002526503423894042</v>
       </c>
       <c r="I411" t="n">
-        <v>0.002526503423893871</v>
+        <v>0.002526503423894042</v>
       </c>
     </row>
     <row r="412">
@@ -14117,7 +14117,7 @@
         <v>99789.53</v>
       </c>
       <c r="D415" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E415" t="n">
         <v>99789.53</v>
@@ -14183,10 +14183,10 @@
         <v>32786.73</v>
       </c>
       <c r="D417" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E417" t="n">
-        <v>32433.83589403973</v>
+        <v>32419.64666666667</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -14194,13 +14194,13 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>-352.8941059602694</v>
+        <v>-367.0833333333358</v>
       </c>
       <c r="H417" t="n">
-        <v>-0.01076332119611408</v>
+        <v>-0.01119609468017505</v>
       </c>
       <c r="I417" t="n">
-        <v>0.01076332119611408</v>
+        <v>0.01119609468017505</v>
       </c>
     </row>
     <row r="418">
@@ -14249,7 +14249,7 @@
         <v>32157.08</v>
       </c>
       <c r="D419" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E419" t="n">
         <v>30332.98</v>
@@ -14282,7 +14282,7 @@
         <v>31418.6</v>
       </c>
       <c r="D420" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E420" t="n">
         <v>31052.21</v>
@@ -14315,7 +14315,7 @@
         <v>24173.77</v>
       </c>
       <c r="D421" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E421" t="n">
         <v>25902.12</v>
@@ -14326,13 +14326,13 @@
         </is>
       </c>
       <c r="G421" t="n">
-        <v>1728.349999999995</v>
+        <v>1728.350000000002</v>
       </c>
       <c r="H421" t="n">
-        <v>0.07149691587203795</v>
+        <v>0.07149691587203826</v>
       </c>
       <c r="I421" t="n">
-        <v>0.07149691587203795</v>
+        <v>0.07149691587203826</v>
       </c>
     </row>
     <row r="422">
@@ -14348,10 +14348,10 @@
         <v>62991.48</v>
       </c>
       <c r="D422" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E422" t="n">
-        <v>66001.14156862746</v>
+        <v>66132.47</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -14359,13 +14359,13 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>3009.661568627453</v>
+        <v>3140.989999999998</v>
       </c>
       <c r="H422" t="n">
-        <v>0.04777886737424573</v>
+        <v>0.04986372760252653</v>
       </c>
       <c r="I422" t="n">
-        <v>0.04777886737424573</v>
+        <v>0.04986372760252653</v>
       </c>
     </row>
     <row r="423">
@@ -14447,10 +14447,10 @@
         <v>47542.99</v>
       </c>
       <c r="D425" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E425" t="n">
-        <v>52749.89</v>
+        <v>52749.89000000001</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -14458,13 +14458,13 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>5206.900000000001</v>
+        <v>5206.900000000009</v>
       </c>
       <c r="H425" t="n">
-        <v>0.1095198261615435</v>
+        <v>0.1095198261615437</v>
       </c>
       <c r="I425" t="n">
-        <v>0.1095198261615435</v>
+        <v>0.1095198261615437</v>
       </c>
     </row>
     <row r="426">
@@ -14810,10 +14810,10 @@
         <v>61143.53</v>
       </c>
       <c r="D436" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E436" t="n">
-        <v>61505.70818181818</v>
+        <v>61505.75666666666</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -14821,13 +14821,13 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>362.1781818181844</v>
+        <v>362.2266666666619</v>
       </c>
       <c r="H436" t="n">
-        <v>0.00592340975109197</v>
+        <v>0.00592420271885941</v>
       </c>
       <c r="I436" t="n">
-        <v>0.00592340975109197</v>
+        <v>0.00592420271885941</v>
       </c>
     </row>
     <row r="437">
@@ -14843,10 +14843,10 @@
         <v>24172.13</v>
       </c>
       <c r="D437" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E437" t="n">
-        <v>23916.86197530864</v>
+        <v>23887.83875</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -14854,13 +14854,13 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>-255.2680246913587</v>
+        <v>-284.2912499999984</v>
       </c>
       <c r="H437" t="n">
-        <v>-0.01056042742991034</v>
+        <v>-0.01176111703850668</v>
       </c>
       <c r="I437" t="n">
-        <v>0.01056042742991034</v>
+        <v>0.01176111703850668</v>
       </c>
     </row>
     <row r="438">
@@ -14876,10 +14876,10 @@
         <v>17380.5</v>
       </c>
       <c r="D438" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E438" t="n">
-        <v>17278.74864864865</v>
+        <v>17198.93865248227</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -14887,13 +14887,13 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>-101.7513513513513</v>
+        <v>-181.5613475177342</v>
       </c>
       <c r="H438" t="n">
-        <v>-0.005854339711248315</v>
+        <v>-0.01044626722578374</v>
       </c>
       <c r="I438" t="n">
-        <v>0.005854339711248315</v>
+        <v>0.01044626722578374</v>
       </c>
     </row>
     <row r="439">
@@ -14909,10 +14909,10 @@
         <v>19703.04</v>
       </c>
       <c r="D439" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E439" t="n">
-        <v>19420.08246575343</v>
+        <v>19418.22165137615</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -14920,13 +14920,13 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>-282.9575342465723</v>
+        <v>-284.8183486238522</v>
       </c>
       <c r="H439" t="n">
-        <v>-0.01436111048074674</v>
+        <v>-0.01445555348940327</v>
       </c>
       <c r="I439" t="n">
-        <v>0.01436111048074674</v>
+        <v>0.01445555348940327</v>
       </c>
     </row>
     <row r="440">
@@ -14942,10 +14942,10 @@
         <v>45492.4</v>
       </c>
       <c r="D440" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E440" t="n">
-        <v>44301.23861386138</v>
+        <v>44304.06199999999</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -14953,13 +14953,13 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>-1191.161386138621</v>
+        <v>-1188.338000000011</v>
       </c>
       <c r="H440" t="n">
-        <v>-0.02618374467248642</v>
+        <v>-0.02612168186334444</v>
       </c>
       <c r="I440" t="n">
-        <v>0.02618374467248642</v>
+        <v>0.02612168186334444</v>
       </c>
     </row>
     <row r="441">
@@ -15041,10 +15041,10 @@
         <v>16785.76</v>
       </c>
       <c r="D443" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E443" t="n">
-        <v>16771.24185185185</v>
+        <v>16756.28383458647</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -15052,13 +15052,13 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>-14.51814814814861</v>
+        <v>-29.47616541353636</v>
       </c>
       <c r="H443" t="n">
-        <v>-0.0008649085980109694</v>
+        <v>-0.001756022093341997</v>
       </c>
       <c r="I443" t="n">
-        <v>0.0008649085980109694</v>
+        <v>0.001756022093341997</v>
       </c>
     </row>
     <row r="444">
@@ -15074,7 +15074,7 @@
         <v>35798.31</v>
       </c>
       <c r="D444" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E444" t="n">
         <v>35798.31</v>
@@ -15107,10 +15107,10 @@
         <v>78266.37</v>
       </c>
       <c r="D445" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E445" t="n">
-        <v>91080.88</v>
+        <v>91080.87999999999</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -15118,13 +15118,13 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>12814.51000000001</v>
+        <v>12814.50999999999</v>
       </c>
       <c r="H445" t="n">
-        <v>0.1637294536593432</v>
+        <v>0.163729453659343</v>
       </c>
       <c r="I445" t="n">
-        <v>0.1637294536593432</v>
+        <v>0.163729453659343</v>
       </c>
     </row>
     <row r="446">
@@ -15264,7 +15264,7 @@
         <v>34343.3</v>
       </c>
       <c r="D450" t="n">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E450" t="n">
         <v>34343.3</v>
@@ -15330,7 +15330,7 @@
         <v>25309.41</v>
       </c>
       <c r="D452" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E452" t="n">
         <v>25309.39</v>
@@ -15341,13 +15341,13 @@
         </is>
       </c>
       <c r="G452" t="n">
-        <v>-0.02000000000407454</v>
+        <v>-0.02000000000043656</v>
       </c>
       <c r="H452" t="n">
-        <v>-7.902199223164244e-07</v>
+        <v>-7.902199221726843e-07</v>
       </c>
       <c r="I452" t="n">
-        <v>7.902199223164244e-07</v>
+        <v>7.902199221726843e-07</v>
       </c>
     </row>
     <row r="453">
@@ -15363,10 +15363,10 @@
         <v>35308.46</v>
       </c>
       <c r="D453" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E453" t="n">
-        <v>35335.71048780488</v>
+        <v>35376.71773584906</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -15374,13 +15374,13 @@
         </is>
       </c>
       <c r="G453" t="n">
-        <v>27.2504878048785</v>
+        <v>68.25773584905983</v>
       </c>
       <c r="H453" t="n">
-        <v>0.0007717835273721511</v>
+        <v>0.00193318360101403</v>
       </c>
       <c r="I453" t="n">
-        <v>0.0007717835273721511</v>
+        <v>0.00193318360101403</v>
       </c>
     </row>
     <row r="454">
@@ -15429,10 +15429,10 @@
         <v>17955.23</v>
       </c>
       <c r="D455" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E455" t="n">
-        <v>17955.23461538462</v>
+        <v>17955.3</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -15440,13 +15440,13 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>0.004615384616045048</v>
+        <v>0.06999999999970896</v>
       </c>
       <c r="H455" t="n">
-        <v>2.57049595914118e-07</v>
+        <v>3.898585537456717e-06</v>
       </c>
       <c r="I455" t="n">
-        <v>2.57049595914118e-07</v>
+        <v>3.898585537456717e-06</v>
       </c>
     </row>
     <row r="456">
@@ -15726,7 +15726,7 @@
         <v>46714.79</v>
       </c>
       <c r="D464" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E464" t="n">
         <v>46714.79</v>
@@ -15759,10 +15759,10 @@
         <v>42266.94</v>
       </c>
       <c r="D465" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E465" t="n">
-        <v>42840.74342105263</v>
+        <v>42845.40540540541</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -15770,13 +15770,13 @@
         </is>
       </c>
       <c r="G465" t="n">
-        <v>573.8034210526312</v>
+        <v>578.4654054054045</v>
       </c>
       <c r="H465" t="n">
-        <v>0.0135757029265102</v>
+        <v>0.01368600152756278</v>
       </c>
       <c r="I465" t="n">
-        <v>0.0135757029265102</v>
+        <v>0.01368600152756278</v>
       </c>
     </row>
     <row r="466">
@@ -15825,7 +15825,7 @@
         <v>32481.15</v>
       </c>
       <c r="D467" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E467" t="n">
         <v>32349.61</v>
@@ -15858,10 +15858,10 @@
         <v>26959.71</v>
       </c>
       <c r="D468" t="n">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E468" t="n">
-        <v>26565.45110535406</v>
+        <v>26566.7824738676</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -15869,13 +15869,13 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>-394.25889464594</v>
+        <v>-392.9275261324037</v>
       </c>
       <c r="H468" t="n">
-        <v>-0.01462400354625254</v>
+        <v>-0.01457461990994724</v>
       </c>
       <c r="I468" t="n">
-        <v>0.01462400354625254</v>
+        <v>0.01457461990994724</v>
       </c>
     </row>
     <row r="469">
@@ -15924,10 +15924,10 @@
         <v>18880.8</v>
       </c>
       <c r="D470" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E470" t="n">
-        <v>18907.48361702128</v>
+        <v>18934.74053763441</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -15935,13 +15935,13 @@
         </is>
       </c>
       <c r="G470" t="n">
-        <v>26.68361702127731</v>
+        <v>53.94053763440752</v>
       </c>
       <c r="H470" t="n">
-        <v>0.001413267288530005</v>
+        <v>0.002856898946782315</v>
       </c>
       <c r="I470" t="n">
-        <v>0.001413267288530005</v>
+        <v>0.002856898946782315</v>
       </c>
     </row>
     <row r="471">
@@ -15957,7 +15957,7 @@
         <v>73666.16</v>
       </c>
       <c r="D471" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E471" t="n">
         <v>73354.81</v>
@@ -15990,10 +15990,10 @@
         <v>26842.03</v>
       </c>
       <c r="D472" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E472" t="n">
-        <v>26558.24000000001</v>
+        <v>26558.24</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -16001,13 +16001,13 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>-283.7899999999936</v>
+        <v>-283.7899999999972</v>
       </c>
       <c r="H472" t="n">
-        <v>-0.01057259827218707</v>
+        <v>-0.01057259827218721</v>
       </c>
       <c r="I472" t="n">
-        <v>0.01057259827218707</v>
+        <v>0.01057259827218721</v>
       </c>
     </row>
     <row r="473">
@@ -16056,10 +16056,10 @@
         <v>59804.81</v>
       </c>
       <c r="D474" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E474" t="n">
-        <v>59804.80714285714</v>
+        <v>59779.0276119403</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -16067,13 +16067,13 @@
         </is>
       </c>
       <c r="G474" t="n">
-        <v>-0.002857142855646089</v>
+        <v>-25.78238805969886</v>
       </c>
       <c r="H474" t="n">
-        <v>-4.777446589406586e-08</v>
+        <v>-0.0004311089368848235</v>
       </c>
       <c r="I474" t="n">
-        <v>4.777446589406586e-08</v>
+        <v>0.0004311089368848235</v>
       </c>
     </row>
     <row r="475">
@@ -16188,10 +16188,10 @@
         <v>64366.93</v>
       </c>
       <c r="D478" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E478" t="n">
-        <v>64366.92714285714</v>
+        <v>64985.33089552238</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -16199,13 +16199,13 @@
         </is>
       </c>
       <c r="G478" t="n">
-        <v>-0.002857142855646089</v>
+        <v>618.4008955223835</v>
       </c>
       <c r="H478" t="n">
-        <v>-4.438836613220622e-08</v>
+        <v>0.009607431883459154</v>
       </c>
       <c r="I478" t="n">
-        <v>4.438836613220622e-08</v>
+        <v>0.009607431883459154</v>
       </c>
     </row>
     <row r="479">
@@ -16254,7 +16254,7 @@
         <v>65372.62</v>
       </c>
       <c r="D480" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E480" t="n">
         <v>65372.62</v>
@@ -16386,10 +16386,10 @@
         <v>61437.39</v>
       </c>
       <c r="D484" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E484" t="n">
-        <v>61449.64226415094</v>
+        <v>61649.10608695652</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -16397,13 +16397,13 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>12.25226415094221</v>
+        <v>211.7160869565196</v>
       </c>
       <c r="H484" t="n">
-        <v>0.0001994268335771134</v>
+        <v>0.00344604624246765</v>
       </c>
       <c r="I484" t="n">
-        <v>0.0001994268335771134</v>
+        <v>0.00344604624246765</v>
       </c>
     </row>
     <row r="485">
@@ -16650,10 +16650,10 @@
         <v>68944.74000000001</v>
       </c>
       <c r="D492" t="n">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E492" t="n">
-        <v>67474.57367346941</v>
+        <v>67829.62387096776</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -16661,13 +16661,13 @@
         </is>
       </c>
       <c r="G492" t="n">
-        <v>-1470.166326530598</v>
+        <v>-1115.116129032249</v>
       </c>
       <c r="H492" t="n">
-        <v>-0.02132383596675537</v>
+        <v>-0.01617405662900823</v>
       </c>
       <c r="I492" t="n">
-        <v>0.02132383596675537</v>
+        <v>0.01617405662900823</v>
       </c>
     </row>
     <row r="493">
@@ -16848,10 +16848,10 @@
         <v>20187.1</v>
       </c>
       <c r="D498" t="n">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E498" t="n">
-        <v>20187.33779286927</v>
+        <v>20190.03446366782</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -16859,13 +16859,13 @@
         </is>
       </c>
       <c r="G498" t="n">
-        <v>0.2377928692694695</v>
+        <v>2.934463667817909</v>
       </c>
       <c r="H498" t="n">
-        <v>1.1779446739228e-05</v>
+        <v>0.0001453633096293132</v>
       </c>
       <c r="I498" t="n">
-        <v>1.1779446739228e-05</v>
+        <v>0.0001453633096293132</v>
       </c>
     </row>
     <row r="499">
@@ -16881,7 +16881,7 @@
         <v>20156.95</v>
       </c>
       <c r="D499" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E499" t="n">
         <v>26525.09</v>
@@ -16980,10 +16980,10 @@
         <v>58343.38</v>
       </c>
       <c r="D502" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E502" t="n">
-        <v>58343.38074074074</v>
+        <v>58180.05981132075</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -16991,13 +16991,13 @@
         </is>
       </c>
       <c r="G502" t="n">
-        <v>0.00074074073927477</v>
+        <v>-163.3201886792522</v>
       </c>
       <c r="H502" t="n">
-        <v>1.269622602041174e-08</v>
+        <v>-0.002799292544916873</v>
       </c>
       <c r="I502" t="n">
-        <v>1.269622602041174e-08</v>
+        <v>0.002799292544916873</v>
       </c>
     </row>
     <row r="503">
@@ -17046,10 +17046,10 @@
         <v>13954.11</v>
       </c>
       <c r="D504" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E504" t="n">
-        <v>13944.545</v>
+        <v>13883.08326530612</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -17057,13 +17057,13 @@
         </is>
       </c>
       <c r="G504" t="n">
-        <v>-9.56499999999869</v>
+        <v>-71.02673469387628</v>
       </c>
       <c r="H504" t="n">
-        <v>-0.0006854611293732592</v>
+        <v>-0.005090022559222787</v>
       </c>
       <c r="I504" t="n">
-        <v>0.0006854611293732592</v>
+        <v>0.005090022559222787</v>
       </c>
     </row>
     <row r="505">
@@ -17244,10 +17244,10 @@
         <v>31714.27</v>
       </c>
       <c r="D510" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E510" t="n">
-        <v>31714.26627450981</v>
+        <v>31715.94000000001</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -17255,13 +17255,13 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>-0.003725490194483427</v>
+        <v>1.67000000000553</v>
       </c>
       <c r="H510" t="n">
-        <v>-1.174704697438543e-07</v>
+        <v>5.265768374947712e-05</v>
       </c>
       <c r="I510" t="n">
-        <v>1.174704697438543e-07</v>
+        <v>5.265768374947712e-05</v>
       </c>
     </row>
     <row r="511">
@@ -17343,10 +17343,10 @@
         <v>17383.49</v>
       </c>
       <c r="D513" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E513" t="n">
-        <v>17577.24816901408</v>
+        <v>17583.47471698113</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -17354,13 +17354,13 @@
         </is>
       </c>
       <c r="G513" t="n">
-        <v>193.7581690140833</v>
+        <v>199.9847169811328</v>
       </c>
       <c r="H513" t="n">
-        <v>0.01114610294101376</v>
+        <v>0.01150429039169538</v>
       </c>
       <c r="I513" t="n">
-        <v>0.01114610294101376</v>
+        <v>0.01150429039169538</v>
       </c>
     </row>
     <row r="514">
@@ -17508,10 +17508,10 @@
         <v>106601.74</v>
       </c>
       <c r="D518" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E518" t="n">
-        <v>106579.4335294118</v>
+        <v>106574.9281818182</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -17519,13 +17519,13 @@
         </is>
       </c>
       <c r="G518" t="n">
-        <v>-22.30647058824252</v>
+        <v>-26.81181818182813</v>
       </c>
       <c r="H518" t="n">
-        <v>-0.0002092505299467206</v>
+        <v>-0.0002515138888148367</v>
       </c>
       <c r="I518" t="n">
-        <v>0.0002092505299467206</v>
+        <v>0.0002515138888148367</v>
       </c>
     </row>
     <row r="519">
@@ -17607,7 +17607,7 @@
         <v>46213.99</v>
       </c>
       <c r="D521" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E521" t="n">
         <v>44858.51</v>
@@ -17673,10 +17673,10 @@
         <v>50834.99</v>
       </c>
       <c r="D523" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E523" t="n">
-        <v>50834.99000000001</v>
+        <v>50834.99</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -17684,13 +17684,13 @@
         </is>
       </c>
       <c r="G523" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>1.431289278149445e-16</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
-        <v>1.431289278149445e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -17739,10 +17739,10 @@
         <v>27592.26</v>
       </c>
       <c r="D525" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E525" t="n">
-        <v>27591.2025</v>
+        <v>27590.63384615385</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -17750,13 +17750,13 @@
         </is>
       </c>
       <c r="G525" t="n">
-        <v>-1.057499999998981</v>
+        <v>-1.626153846154921</v>
       </c>
       <c r="H525" t="n">
-        <v>-3.832596532502163e-05</v>
+        <v>-5.893514507890693e-05</v>
       </c>
       <c r="I525" t="n">
-        <v>3.832596532502163e-05</v>
+        <v>5.893514507890693e-05</v>
       </c>
     </row>
     <row r="526">
@@ -17772,10 +17772,10 @@
         <v>26159.01</v>
       </c>
       <c r="D526" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E526" t="n">
-        <v>26160.93857142857</v>
+        <v>26162.61891089109</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -17783,13 +17783,13 @@
         </is>
       </c>
       <c r="G526" t="n">
-        <v>1.92857142856883</v>
+        <v>3.608910891085543</v>
       </c>
       <c r="H526" t="n">
-        <v>7.372493945943787e-05</v>
+        <v>0.0001379605302756313</v>
       </c>
       <c r="I526" t="n">
-        <v>7.372493945943787e-05</v>
+        <v>0.0001379605302756313</v>
       </c>
     </row>
     <row r="527">
@@ -17805,10 +17805,10 @@
         <v>16349.18</v>
       </c>
       <c r="D527" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E527" t="n">
-        <v>16365.84131313131</v>
+        <v>16553.02460674157</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -17816,13 +17816,13 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>16.66131313131336</v>
+        <v>203.8446067415716</v>
       </c>
       <c r="H527" t="n">
-        <v>0.001019091668897973</v>
+        <v>0.01246818536107448</v>
       </c>
       <c r="I527" t="n">
-        <v>0.001019091668897973</v>
+        <v>0.01246818536107448</v>
       </c>
     </row>
     <row r="528">
@@ -17871,10 +17871,10 @@
         <v>45691.48</v>
       </c>
       <c r="D529" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E529" t="n">
-        <v>51560.88661016949</v>
+        <v>51773.54689655173</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -17882,13 +17882,13 @@
         </is>
       </c>
       <c r="G529" t="n">
-        <v>5869.406610169492</v>
+        <v>6082.066896551725</v>
       </c>
       <c r="H529" t="n">
-        <v>0.1284573537598145</v>
+        <v>0.1331116194212077</v>
       </c>
       <c r="I529" t="n">
-        <v>0.1284573537598145</v>
+        <v>0.1331116194212077</v>
       </c>
     </row>
     <row r="530">
@@ -17904,10 +17904,10 @@
         <v>17481.48</v>
       </c>
       <c r="D530" t="n">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E530" t="n">
-        <v>17489.6876344086</v>
+        <v>17532.77745098039</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -17915,13 +17915,13 @@
         </is>
       </c>
       <c r="G530" t="n">
-        <v>8.207634408605372</v>
+        <v>51.29745098039348</v>
       </c>
       <c r="H530" t="n">
-        <v>0.0004695045504502692</v>
+        <v>0.002934388334419825</v>
       </c>
       <c r="I530" t="n">
-        <v>0.0004695045504502692</v>
+        <v>0.002934388334419825</v>
       </c>
     </row>
     <row r="531">
@@ -17970,10 +17970,10 @@
         <v>41584.36</v>
       </c>
       <c r="D532" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E532" t="n">
-        <v>41584.35868852459</v>
+        <v>43528.06148148148</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -17981,13 +17981,13 @@
         </is>
       </c>
       <c r="G532" t="n">
-        <v>-0.001311475411057472</v>
+        <v>1943.701481481476</v>
       </c>
       <c r="H532" t="n">
-        <v>-3.153770819263473e-08</v>
+        <v>0.04674116618559179</v>
       </c>
       <c r="I532" t="n">
-        <v>3.153770819263473e-08</v>
+        <v>0.04674116618559179</v>
       </c>
     </row>
     <row r="533">
@@ -18003,10 +18003,10 @@
         <v>18729.84</v>
       </c>
       <c r="D533" t="n">
-        <v>1611</v>
+        <v>1565</v>
       </c>
       <c r="E533" t="n">
-        <v>17933.24127870888</v>
+        <v>17969.64568690096</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -18014,13 +18014,13 @@
         </is>
       </c>
       <c r="G533" t="n">
-        <v>-796.5987212911205</v>
+        <v>-760.1943130990403</v>
       </c>
       <c r="H533" t="n">
-        <v>-0.04253099446077065</v>
+        <v>-0.04058733620250041</v>
       </c>
       <c r="I533" t="n">
-        <v>0.04253099446077065</v>
+        <v>0.04058733620250041</v>
       </c>
     </row>
     <row r="534">
@@ -18069,10 +18069,10 @@
         <v>16758.17</v>
       </c>
       <c r="D535" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E535" t="n">
-        <v>16780.78911458333</v>
+        <v>16797.45810026385</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -18080,13 +18080,13 @@
         </is>
       </c>
       <c r="G535" t="n">
-        <v>22.61911458332906</v>
+        <v>39.28810026384963</v>
       </c>
       <c r="H535" t="n">
-        <v>0.001349736551385328</v>
+        <v>0.002344414710189097</v>
       </c>
       <c r="I535" t="n">
-        <v>0.001349736551385328</v>
+        <v>0.002344414710189097</v>
       </c>
     </row>
     <row r="536">
@@ -18168,7 +18168,7 @@
         <v>80228.57000000001</v>
       </c>
       <c r="D538" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E538" t="n">
         <v>85400</v>
@@ -18201,10 +18201,10 @@
         <v>11277.72</v>
       </c>
       <c r="D539" t="n">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E539" t="n">
-        <v>12250.59803339518</v>
+        <v>12272.25536448598</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -18212,13 +18212,13 @@
         </is>
       </c>
       <c r="G539" t="n">
-        <v>972.8780333951763</v>
+        <v>994.5353644859824</v>
       </c>
       <c r="H539" t="n">
-        <v>0.08626548924739898</v>
+        <v>0.08818585356667681</v>
       </c>
       <c r="I539" t="n">
-        <v>0.08626548924739898</v>
+        <v>0.08818585356667681</v>
       </c>
     </row>
     <row r="540">
@@ -18267,10 +18267,10 @@
         <v>33402.72</v>
       </c>
       <c r="D541" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E541" t="n">
-        <v>33402.72339622641</v>
+        <v>33424.55692307693</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -18278,13 +18278,13 @@
         </is>
       </c>
       <c r="G541" t="n">
-        <v>0.003396226413315162</v>
+        <v>21.83692307692399</v>
       </c>
       <c r="H541" t="n">
-        <v>1.016751454167553e-07</v>
+        <v>0.0006537468528588089</v>
       </c>
       <c r="I541" t="n">
-        <v>1.016751454167553e-07</v>
+        <v>0.0006537468528588089</v>
       </c>
     </row>
     <row r="542">
@@ -18300,7 +18300,7 @@
         <v>40663.48</v>
       </c>
       <c r="D542" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E542" t="n">
         <v>40663.48</v>
@@ -18432,10 +18432,10 @@
         <v>22069.66</v>
       </c>
       <c r="D546" t="n">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="E546" t="n">
-        <v>22060.055</v>
+        <v>22032.01183856502</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -18443,13 +18443,13 @@
         </is>
       </c>
       <c r="G546" t="n">
-        <v>-9.604999999999563</v>
+        <v>-37.64816143497592</v>
       </c>
       <c r="H546" t="n">
-        <v>-0.0004352128668950751</v>
+        <v>-0.001705878633154109</v>
       </c>
       <c r="I546" t="n">
-        <v>0.0004352128668950751</v>
+        <v>0.001705878633154109</v>
       </c>
     </row>
     <row r="547">
@@ -18465,10 +18465,10 @@
         <v>32226.55</v>
       </c>
       <c r="D547" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E547" t="n">
-        <v>32183.52168831169</v>
+        <v>32131.15684385382</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -18476,13 +18476,13 @@
         </is>
       </c>
       <c r="G547" t="n">
-        <v>-43.02831168831108</v>
+        <v>-95.3931561461759</v>
       </c>
       <c r="H547" t="n">
-        <v>-0.001335182068459425</v>
+        <v>-0.002960079690384974</v>
       </c>
       <c r="I547" t="n">
-        <v>0.001335182068459425</v>
+        <v>0.002960079690384974</v>
       </c>
     </row>
     <row r="548">
@@ -18597,10 +18597,10 @@
         <v>57395.04</v>
       </c>
       <c r="D551" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E551" t="n">
-        <v>57395.03886792453</v>
+        <v>57411.23800947868</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -18608,13 +18608,13 @@
         </is>
       </c>
       <c r="G551" t="n">
-        <v>-0.001132075471105054</v>
+        <v>16.1980094786777</v>
       </c>
       <c r="H551" t="n">
-        <v>-1.972427358017442e-08</v>
+        <v>0.0002822196740115122</v>
       </c>
       <c r="I551" t="n">
-        <v>1.972427358017442e-08</v>
+        <v>0.0002822196740115122</v>
       </c>
     </row>
     <row r="552">
@@ -18663,10 +18663,10 @@
         <v>37650.52</v>
       </c>
       <c r="D553" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E553" t="n">
-        <v>37385.15619402985</v>
+        <v>37505.22833333334</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -18674,13 +18674,13 @@
         </is>
       </c>
       <c r="G553" t="n">
-        <v>-265.3638059701552</v>
+        <v>-145.2916666666642</v>
       </c>
       <c r="H553" t="n">
-        <v>-0.007048078113400697</v>
+        <v>-0.003858955113147554</v>
       </c>
       <c r="I553" t="n">
-        <v>0.007048078113400697</v>
+        <v>0.003858955113147554</v>
       </c>
     </row>
     <row r="554">
@@ -18696,7 +18696,7 @@
         <v>18881.7</v>
       </c>
       <c r="D554" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E554" t="n">
         <v>18881.7</v>
@@ -18729,10 +18729,10 @@
         <v>21860.93</v>
       </c>
       <c r="D555" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E555" t="n">
-        <v>21688.87401656315</v>
+        <v>21686.56037344398</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -18740,13 +18740,13 @@
         </is>
       </c>
       <c r="G555" t="n">
-        <v>-172.0559834368541</v>
+        <v>-174.3696265560175</v>
       </c>
       <c r="H555" t="n">
-        <v>-0.007870478677570174</v>
+        <v>-0.007976313292985131</v>
       </c>
       <c r="I555" t="n">
-        <v>0.007870478677570174</v>
+        <v>0.007976313292985131</v>
       </c>
     </row>
     <row r="556">
@@ -18894,10 +18894,10 @@
         <v>25293.47</v>
       </c>
       <c r="D560" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E560" t="n">
-        <v>24546.71565217392</v>
+        <v>24433.94835820896</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -18905,13 +18905,13 @@
         </is>
       </c>
       <c r="G560" t="n">
-        <v>-746.754347826085</v>
+        <v>-859.5216417910451</v>
       </c>
       <c r="H560" t="n">
-        <v>-0.02952360225094006</v>
+        <v>-0.03398195826001909</v>
       </c>
       <c r="I560" t="n">
-        <v>0.02952360225094006</v>
+        <v>0.03398195826001909</v>
       </c>
     </row>
     <row r="561">
@@ -18927,10 +18927,10 @@
         <v>22350.47</v>
       </c>
       <c r="D561" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E561" t="n">
-        <v>20986.17285714286</v>
+        <v>20836.19981132076</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -18938,13 +18938,13 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>-1364.297142857144</v>
+        <v>-1514.270188679246</v>
       </c>
       <c r="H561" t="n">
-        <v>-0.06104109411825091</v>
+        <v>-0.06775115640428347</v>
       </c>
       <c r="I561" t="n">
-        <v>0.06104109411825091</v>
+        <v>0.06775115640428347</v>
       </c>
     </row>
     <row r="562">
@@ -18960,10 +18960,10 @@
         <v>30018.69</v>
       </c>
       <c r="D562" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E562" t="n">
-        <v>30116.20838827839</v>
+        <v>30123.09176470588</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -18971,13 +18971,13 @@
         </is>
       </c>
       <c r="G562" t="n">
-        <v>97.51838827838947</v>
+        <v>104.401764705879</v>
       </c>
       <c r="H562" t="n">
-        <v>0.003248589071621362</v>
+        <v>0.003477892096753024</v>
       </c>
       <c r="I562" t="n">
-        <v>0.003248589071621362</v>
+        <v>0.003477892096753024</v>
       </c>
     </row>
     <row r="563">
@@ -19026,10 +19026,10 @@
         <v>25753.66</v>
       </c>
       <c r="D564" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E564" t="n">
-        <v>25753.6615037594</v>
+        <v>25752.77037735849</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -19037,13 +19037,13 @@
         </is>
       </c>
       <c r="G564" t="n">
-        <v>0.001503759398474358</v>
+        <v>-0.8896226415090496</v>
       </c>
       <c r="H564" t="n">
-        <v>5.839012390760606e-08</v>
+        <v>-3.454354221920494e-05</v>
       </c>
       <c r="I564" t="n">
-        <v>5.839012390760606e-08</v>
+        <v>3.454354221920494e-05</v>
       </c>
     </row>
     <row r="565">
@@ -19158,10 +19158,10 @@
         <v>73601.22</v>
       </c>
       <c r="D568" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E568" t="n">
-        <v>73601.21846153846</v>
+        <v>73667.4588976378</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -19169,13 +19169,13 @@
         </is>
       </c>
       <c r="G568" t="n">
-        <v>-0.001538461539894342</v>
+        <v>66.2388976377988</v>
       </c>
       <c r="H568" t="n">
-        <v>-2.090266356854332e-08</v>
+        <v>0.0008999701042699944</v>
       </c>
       <c r="I568" t="n">
-        <v>2.090266356854332e-08</v>
+        <v>0.0008999701042699944</v>
       </c>
     </row>
     <row r="569">
@@ -19257,10 +19257,10 @@
         <v>25675.26</v>
       </c>
       <c r="D571" t="n">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E571" t="n">
-        <v>25687.11351351352</v>
+        <v>25785.93644859813</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -19268,13 +19268,13 @@
         </is>
       </c>
       <c r="G571" t="n">
-        <v>11.85351351351346</v>
+        <v>110.6764485981294</v>
       </c>
       <c r="H571" t="n">
-        <v>0.000461670632099284</v>
+        <v>0.00431062620585456</v>
       </c>
       <c r="I571" t="n">
-        <v>0.000461670632099284</v>
+        <v>0.00431062620585456</v>
       </c>
     </row>
     <row r="572">
@@ -19419,10 +19419,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>78137.92</v>
+        <v>77966.17</v>
       </c>
       <c r="D576" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E576" t="n">
         <v>76177.8</v>
@@ -19433,13 +19433,13 @@
         </is>
       </c>
       <c r="G576" t="n">
-        <v>-1960.119999999995</v>
+        <v>-1788.369999999995</v>
       </c>
       <c r="H576" t="n">
-        <v>-0.02508538747896022</v>
+        <v>-0.02293776903495446</v>
       </c>
       <c r="I576" t="n">
-        <v>0.02508538747896022</v>
+        <v>0.02293776903495446</v>
       </c>
     </row>
     <row r="577">
@@ -19620,7 +19620,7 @@
         <v>23528.48</v>
       </c>
       <c r="D582" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E582" t="n">
         <v>23678.65</v>
@@ -19818,7 +19818,7 @@
         <v>45497.79</v>
       </c>
       <c r="D588" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E588" t="n">
         <v>41288.29</v>
@@ -19950,10 +19950,10 @@
         <v>58344.73</v>
       </c>
       <c r="D592" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E592" t="n">
-        <v>58344.73450980392</v>
+        <v>58385.53</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -19961,13 +19961,13 @@
         </is>
       </c>
       <c r="G592" t="n">
-        <v>0.004509803919063415</v>
+        <v>40.79999999999563</v>
       </c>
       <c r="H592" t="n">
-        <v>7.729582293145268e-08</v>
+        <v>0.0006992919497612832</v>
       </c>
       <c r="I592" t="n">
-        <v>7.729582293145268e-08</v>
+        <v>0.0006992919497612832</v>
       </c>
     </row>
     <row r="593">
@@ -19983,7 +19983,7 @@
         <v>26490.42</v>
       </c>
       <c r="D593" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E593" t="n">
         <v>27400.88</v>
@@ -20082,7 +20082,7 @@
         <v>41677.76</v>
       </c>
       <c r="D596" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E596" t="n">
         <v>41677.76</v>
@@ -20115,10 +20115,10 @@
         <v>11112.49</v>
       </c>
       <c r="D597" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E597" t="n">
-        <v>9901.599259259259</v>
+        <v>9836.253846153846</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -20126,13 +20126,13 @@
         </is>
       </c>
       <c r="G597" t="n">
-        <v>-1210.890740740741</v>
+        <v>-1276.236153846154</v>
       </c>
       <c r="H597" t="n">
-        <v>-0.1089666439061579</v>
+        <v>-0.1148470013332884</v>
       </c>
       <c r="I597" t="n">
-        <v>0.1089666439061579</v>
+        <v>0.1148470013332884</v>
       </c>
     </row>
     <row r="598">
@@ -20181,7 +20181,7 @@
         <v>31620.38</v>
       </c>
       <c r="D599" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E599" t="n">
         <v>31946.76</v>
@@ -20214,10 +20214,10 @@
         <v>24934.54</v>
       </c>
       <c r="D600" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E600" t="n">
-        <v>24684.35591549296</v>
+        <v>24642.77869565217</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
@@ -20225,13 +20225,13 @@
         </is>
       </c>
       <c r="G600" t="n">
-        <v>-250.1840845070437</v>
+        <v>-291.7613043478268</v>
       </c>
       <c r="H600" t="n">
-        <v>-0.01003363545134756</v>
+        <v>-0.01170109030877758</v>
       </c>
       <c r="I600" t="n">
-        <v>0.01003363545134756</v>
+        <v>0.01170109030877758</v>
       </c>
     </row>
     <row r="601">
@@ -20247,7 +20247,7 @@
         <v>20173.64</v>
       </c>
       <c r="D601" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E601" t="n">
         <v>20173.64</v>
@@ -20280,7 +20280,7 @@
         <v>12223.4</v>
       </c>
       <c r="D602" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E602" t="n">
         <v>12426.23</v>
@@ -20291,13 +20291,13 @@
         </is>
       </c>
       <c r="G602" t="n">
-        <v>202.8300000000017</v>
+        <v>202.8299999999999</v>
       </c>
       <c r="H602" t="n">
-        <v>0.01659358280020303</v>
+        <v>0.01659358280020289</v>
       </c>
       <c r="I602" t="n">
-        <v>0.01659358280020303</v>
+        <v>0.01659358280020289</v>
       </c>
     </row>
     <row r="603">
@@ -20313,10 +20313,10 @@
         <v>21904.61</v>
       </c>
       <c r="D603" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E603" t="n">
-        <v>21988.01890410959</v>
+        <v>22126.82642335767</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -20324,13 +20324,13 @@
         </is>
       </c>
       <c r="G603" t="n">
-        <v>83.40890410958673</v>
+        <v>222.2164233576659</v>
       </c>
       <c r="H603" t="n">
-        <v>0.003807824202740278</v>
+        <v>0.01014473315697773</v>
       </c>
       <c r="I603" t="n">
-        <v>0.003807824202740278</v>
+        <v>0.01014473315697773</v>
       </c>
     </row>
     <row r="604">
@@ -20379,10 +20379,10 @@
         <v>10397.8</v>
       </c>
       <c r="D605" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E605" t="n">
-        <v>10397.80213114754</v>
+        <v>10374.35857142857</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -20390,13 +20390,13 @@
         </is>
       </c>
       <c r="G605" t="n">
-        <v>0.002131147539330414</v>
+        <v>-23.44142857143015</v>
       </c>
       <c r="H605" t="n">
-        <v>2.04961389845007e-07</v>
+        <v>-0.002254460421572847</v>
       </c>
       <c r="I605" t="n">
-        <v>2.04961389845007e-07</v>
+        <v>0.002254460421572847</v>
       </c>
     </row>
     <row r="606">
@@ -20544,7 +20544,7 @@
         <v>28146.09</v>
       </c>
       <c r="D610" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E610" t="n">
         <v>27720.79</v>
@@ -20610,10 +20610,10 @@
         <v>16379.87</v>
       </c>
       <c r="D612" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E612" t="n">
-        <v>16388.06335329342</v>
+        <v>16391.23939577039</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -20621,13 +20621,13 @@
         </is>
       </c>
       <c r="G612" t="n">
-        <v>8.193353293414475</v>
+        <v>11.36939577039266</v>
       </c>
       <c r="H612" t="n">
-        <v>0.0005002086886779</v>
+        <v>0.0006941078146769575</v>
       </c>
       <c r="I612" t="n">
-        <v>0.0005002086886779</v>
+        <v>0.0006941078146769575</v>
       </c>
     </row>
     <row r="613">
@@ -20676,10 +20676,10 @@
         <v>25461.03</v>
       </c>
       <c r="D614" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E614" t="n">
-        <v>25847.47205479452</v>
+        <v>25836.44222222222</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -20687,13 +20687,13 @@
         </is>
       </c>
       <c r="G614" t="n">
-        <v>386.4420547945228</v>
+        <v>375.4122222222213</v>
       </c>
       <c r="H614" t="n">
-        <v>0.01517778561175737</v>
+        <v>0.01474458111954706</v>
       </c>
       <c r="I614" t="n">
-        <v>0.01517778561175737</v>
+        <v>0.01474458111954706</v>
       </c>
     </row>
     <row r="615">
@@ -20742,7 +20742,7 @@
         <v>36095</v>
       </c>
       <c r="D616" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E616" t="n">
         <v>30431.14</v>
@@ -21204,7 +21204,7 @@
         <v>21807.67</v>
       </c>
       <c r="D630" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E630" t="n">
         <v>21807.67</v>
@@ -21270,7 +21270,7 @@
         <v>18014.12</v>
       </c>
       <c r="D632" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E632" t="n">
         <v>18160.15</v>
@@ -21303,10 +21303,10 @@
         <v>13346.3</v>
       </c>
       <c r="D633" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E633" t="n">
-        <v>13266.75411764706</v>
+        <v>13123.88315789474</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -21314,13 +21314,13 @@
         </is>
       </c>
       <c r="G633" t="n">
-        <v>-79.54588235294068</v>
+        <v>-222.4168421052636</v>
       </c>
       <c r="H633" t="n">
-        <v>-0.005960144935520757</v>
+        <v>-0.01666505639055496</v>
       </c>
       <c r="I633" t="n">
-        <v>0.005960144935520757</v>
+        <v>0.01666505639055496</v>
       </c>
     </row>
     <row r="634">
@@ -21369,7 +21369,7 @@
         <v>30031.58</v>
       </c>
       <c r="D635" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E635" t="n">
         <v>30031.58</v>
@@ -21380,13 +21380,13 @@
         </is>
       </c>
       <c r="G635" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>-1.211384418366171e-16</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
-        <v>1.211384418366171e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -21468,7 +21468,7 @@
         <v>22862.05</v>
       </c>
       <c r="D638" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E638" t="n">
         <v>22819.69</v>
@@ -21501,10 +21501,10 @@
         <v>22090.06</v>
       </c>
       <c r="D639" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E639" t="n">
-        <v>22090.0647826087</v>
+        <v>22183.27179104478</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -21512,13 +21512,13 @@
         </is>
       </c>
       <c r="G639" t="n">
-        <v>0.004782608695677482</v>
+        <v>93.21179104477415</v>
       </c>
       <c r="H639" t="n">
-        <v>2.165050115607419e-07</v>
+        <v>0.004219625978597348</v>
       </c>
       <c r="I639" t="n">
-        <v>2.165050115607419e-07</v>
+        <v>0.004219625978597348</v>
       </c>
     </row>
     <row r="640">
@@ -21600,10 +21600,10 @@
         <v>18643.85</v>
       </c>
       <c r="D642" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E642" t="n">
-        <v>18643.845</v>
+        <v>18645.63711340206</v>
       </c>
       <c r="F642" t="inlineStr">
         <is>
@@ -21611,13 +21611,13 @@
         </is>
       </c>
       <c r="G642" t="n">
-        <v>-0.005000000001018634</v>
+        <v>1.787113402060641</v>
       </c>
       <c r="H642" t="n">
-        <v>-2.681849511242921e-07</v>
+        <v>9.585538405751174e-05</v>
       </c>
       <c r="I642" t="n">
-        <v>2.681849511242921e-07</v>
+        <v>9.585538405751174e-05</v>
       </c>
     </row>
     <row r="643">
@@ -21699,7 +21699,7 @@
         <v>16777.28</v>
       </c>
       <c r="D645" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E645" t="n">
         <v>16777.28</v>
@@ -21897,7 +21897,7 @@
         <v>28214.67</v>
       </c>
       <c r="D651" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E651" t="n">
         <v>28214.73</v>
@@ -21996,10 +21996,10 @@
         <v>10372.07</v>
       </c>
       <c r="D654" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E654" t="n">
-        <v>10372.06845070423</v>
+        <v>10389.48074074074</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -22007,13 +22007,13 @@
         </is>
       </c>
       <c r="G654" t="n">
-        <v>-0.001549295773656922</v>
+        <v>17.41074074074095</v>
       </c>
       <c r="H654" t="n">
-        <v>-1.493718971870535e-07</v>
+        <v>0.001678617743684814</v>
       </c>
       <c r="I654" t="n">
-        <v>1.493718971870535e-07</v>
+        <v>0.001678617743684814</v>
       </c>
     </row>
     <row r="655">
@@ -22095,10 +22095,10 @@
         <v>27419.57</v>
       </c>
       <c r="D657" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E657" t="n">
-        <v>27434.55181818182</v>
+        <v>27327.68764705882</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -22106,13 +22106,13 @@
         </is>
       </c>
       <c r="G657" t="n">
-        <v>14.98181818181911</v>
+        <v>-91.88235294117476</v>
       </c>
       <c r="H657" t="n">
-        <v>0.0005463914343594413</v>
+        <v>-0.003350977164892621</v>
       </c>
       <c r="I657" t="n">
-        <v>0.0005463914343594413</v>
+        <v>0.003350977164892621</v>
       </c>
     </row>
     <row r="658">
@@ -22161,7 +22161,7 @@
         <v>20659.3</v>
       </c>
       <c r="D659" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E659" t="n">
         <v>20064.35</v>
@@ -22257,10 +22257,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>39307.15</v>
+        <v>39298.92</v>
       </c>
       <c r="D662" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E662" t="n">
         <v>37914.17</v>
@@ -22271,13 +22271,13 @@
         </is>
       </c>
       <c r="G662" t="n">
-        <v>-1392.980000000003</v>
+        <v>-1384.75</v>
       </c>
       <c r="H662" t="n">
-        <v>-0.0354383362823304</v>
+        <v>-0.03523633728356912</v>
       </c>
       <c r="I662" t="n">
-        <v>0.0354383362823304</v>
+        <v>0.03523633728356912</v>
       </c>
     </row>
     <row r="663">
@@ -22326,7 +22326,7 @@
         <v>20377.24</v>
       </c>
       <c r="D664" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E664" t="n">
         <v>20377.24</v>
@@ -22425,7 +22425,7 @@
         <v>37181.57</v>
       </c>
       <c r="D667" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E667" t="n">
         <v>37181.57</v>
@@ -22557,7 +22557,7 @@
         <v>15556.78</v>
       </c>
       <c r="D671" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E671" t="n">
         <v>14535.57</v>
@@ -22656,10 +22656,10 @@
         <v>43166.76</v>
       </c>
       <c r="D674" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E674" t="n">
-        <v>43166.76214285714</v>
+        <v>43131.6</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -22667,13 +22667,13 @@
         </is>
       </c>
       <c r="G674" t="n">
-        <v>0.002142857141734567</v>
+        <v>-35.16000000000349</v>
       </c>
       <c r="H674" t="n">
-        <v>4.964137085420742e-08</v>
+        <v>-0.0008145156134026156</v>
       </c>
       <c r="I674" t="n">
-        <v>4.964137085420742e-08</v>
+        <v>0.0008145156134026156</v>
       </c>
     </row>
     <row r="675">
@@ -22689,10 +22689,10 @@
         <v>46023.74</v>
       </c>
       <c r="D675" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E675" t="n">
-        <v>46023.74461538462</v>
+        <v>46143.83</v>
       </c>
       <c r="F675" t="inlineStr">
         <is>
@@ -22700,13 +22700,13 @@
         </is>
       </c>
       <c r="G675" t="n">
-        <v>0.004615384619683027</v>
+        <v>120.0900000000038</v>
       </c>
       <c r="H675" t="n">
-        <v>1.002826936638141e-07</v>
+        <v>0.002609305545355588</v>
       </c>
       <c r="I675" t="n">
-        <v>1.002826936638141e-07</v>
+        <v>0.002609305545355588</v>
       </c>
     </row>
     <row r="676">
@@ -23118,7 +23118,7 @@
         <v>17200.65</v>
       </c>
       <c r="D688" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E688" t="n">
         <v>17359.87</v>
@@ -23151,7 +23151,7 @@
         <v>231087.99</v>
       </c>
       <c r="D689" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E689" t="n">
         <v>231980.27</v>
